--- a/incIatras.xlsx
+++ b/incIatras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\9 semestre\IABO\LAB IABO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D136041C-0360-49FD-9B98-5787298F3118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B54F0BF-60E2-4F77-AAE7-30AC05AC5E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{598DBBE8-B8EA-4B2B-B516-2FD7FDAAF49D}"/>
   </bookViews>
@@ -32,10 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,9 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D50FCB-82A9-4DF7-A738-68C073C06FA7}">
-  <dimension ref="A1:I570"/>
+  <dimension ref="A1:I350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="A570" sqref="A351:I570"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10541,6386 +10539,6 @@
         <v>8.4589999999999996</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="B351">
-        <v>-0.19400000000000001</v>
-      </c>
-      <c r="C351">
-        <v>0.504</v>
-      </c>
-      <c r="D351">
-        <v>263.12299999999999</v>
-      </c>
-      <c r="E351">
-        <v>-25.33</v>
-      </c>
-      <c r="F351">
-        <v>28.748000000000001</v>
-      </c>
-      <c r="G351">
-        <v>29.138000000000002</v>
-      </c>
-      <c r="H351">
-        <v>-11.926</v>
-      </c>
-      <c r="I351">
-        <v>5.0540000000000003</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="B352">
-        <v>-0.56599999999999995</v>
-      </c>
-      <c r="C352">
-        <v>0.376</v>
-      </c>
-      <c r="D352">
-        <v>45.654000000000003</v>
-      </c>
-      <c r="E352">
-        <v>14.465</v>
-      </c>
-      <c r="F352">
-        <v>57.006999999999998</v>
-      </c>
-      <c r="G352">
-        <v>28.613</v>
-      </c>
-      <c r="H352">
-        <v>-8.85</v>
-      </c>
-      <c r="I352">
-        <v>5.1639999999999997</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A353">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="B353">
-        <v>-0.59499999999999997</v>
-      </c>
-      <c r="C353">
-        <v>0.6</v>
-      </c>
-      <c r="D353">
-        <v>-210.38800000000001</v>
-      </c>
-      <c r="E353">
-        <v>20.507999999999999</v>
-      </c>
-      <c r="F353">
-        <v>-17.760999999999999</v>
-      </c>
-      <c r="G353">
-        <v>29.516999999999999</v>
-      </c>
-      <c r="H353">
-        <v>-11.34</v>
-      </c>
-      <c r="I353">
-        <v>5.31</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="B354">
-        <v>-0.20599999999999999</v>
-      </c>
-      <c r="C354">
-        <v>0.754</v>
-      </c>
-      <c r="D354">
-        <v>-303.46699999999998</v>
-      </c>
-      <c r="E354">
-        <v>-22.094999999999999</v>
-      </c>
-      <c r="F354">
-        <v>-30.701000000000001</v>
-      </c>
-      <c r="G354">
-        <v>29.236000000000001</v>
-      </c>
-      <c r="H354">
-        <v>-16.956</v>
-      </c>
-      <c r="I354">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="B355">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="C355">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="D355">
-        <v>-226.501</v>
-      </c>
-      <c r="E355">
-        <v>-15.32</v>
-      </c>
-      <c r="F355">
-        <v>-29.053000000000001</v>
-      </c>
-      <c r="G355">
-        <v>29.785</v>
-      </c>
-      <c r="H355">
-        <v>-21.265000000000001</v>
-      </c>
-      <c r="I355">
-        <v>11.865</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A356">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="B356">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="C356">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D356">
-        <v>25.146000000000001</v>
-      </c>
-      <c r="E356">
-        <v>-7.3239999999999998</v>
-      </c>
-      <c r="F356">
-        <v>-34.423999999999999</v>
-      </c>
-      <c r="G356">
-        <v>30.029</v>
-      </c>
-      <c r="H356">
-        <v>-22.045999999999999</v>
-      </c>
-      <c r="I356">
-        <v>12.256</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="B357">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="C357">
-        <v>1.028</v>
-      </c>
-      <c r="D357">
-        <v>260.62</v>
-      </c>
-      <c r="E357">
-        <v>-7.2629999999999999</v>
-      </c>
-      <c r="F357">
-        <v>5.7370000000000001</v>
-      </c>
-      <c r="G357">
-        <v>29.736000000000001</v>
-      </c>
-      <c r="H357">
-        <v>-18.701000000000001</v>
-      </c>
-      <c r="I357">
-        <v>9.3260000000000005</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <v>0.49</v>
-      </c>
-      <c r="B358">
-        <v>-0.29499999999999998</v>
-      </c>
-      <c r="C358">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="D358">
-        <v>295.04399999999998</v>
-      </c>
-      <c r="E358">
-        <v>-26.55</v>
-      </c>
-      <c r="F358">
-        <v>50.963999999999999</v>
-      </c>
-      <c r="G358">
-        <v>28.687000000000001</v>
-      </c>
-      <c r="H358">
-        <v>-12.781000000000001</v>
-      </c>
-      <c r="I358">
-        <v>7.4829999999999997</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>0.6</v>
-      </c>
-      <c r="B359">
-        <v>-0.56299999999999994</v>
-      </c>
-      <c r="C359">
-        <v>0.377</v>
-      </c>
-      <c r="D359">
-        <v>108.765</v>
-      </c>
-      <c r="E359">
-        <v>20.507999999999999</v>
-      </c>
-      <c r="F359">
-        <v>69.213999999999999</v>
-      </c>
-      <c r="G359">
-        <v>28.100999999999999</v>
-      </c>
-      <c r="H359">
-        <v>-8.8620000000000001</v>
-      </c>
-      <c r="I359">
-        <v>5.4320000000000004</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>0.77</v>
-      </c>
-      <c r="B360">
-        <v>-0.68200000000000005</v>
-      </c>
-      <c r="C360">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="D360">
-        <v>-107.422</v>
-      </c>
-      <c r="E360">
-        <v>36.194000000000003</v>
-      </c>
-      <c r="F360">
-        <v>5.798</v>
-      </c>
-      <c r="G360">
-        <v>29.041</v>
-      </c>
-      <c r="H360">
-        <v>-9.9</v>
-      </c>
-      <c r="I360">
-        <v>5.1390000000000002</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="B361">
-        <v>-0.31</v>
-      </c>
-      <c r="C361">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="D361">
-        <v>-291.13799999999998</v>
-      </c>
-      <c r="E361">
-        <v>-17.456</v>
-      </c>
-      <c r="F361">
-        <v>-28.259</v>
-      </c>
-      <c r="G361">
-        <v>29.015999999999998</v>
-      </c>
-      <c r="H361">
-        <v>-14.465</v>
-      </c>
-      <c r="I361">
-        <v>7.0430000000000001</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A362">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="B362">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="C362">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="D362">
-        <v>-237.36600000000001</v>
-      </c>
-      <c r="E362">
-        <v>-11.657999999999999</v>
-      </c>
-      <c r="F362">
-        <v>-20.873999999999999</v>
-      </c>
-      <c r="G362">
-        <v>29.126000000000001</v>
-      </c>
-      <c r="H362">
-        <v>-19.518999999999998</v>
-      </c>
-      <c r="I362">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="B363">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="C363">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="D363">
-        <v>6.3479999999999999</v>
-      </c>
-      <c r="E363">
-        <v>-2.5019999999999998</v>
-      </c>
-      <c r="F363">
-        <v>-17.395</v>
-      </c>
-      <c r="G363">
-        <v>29.663</v>
-      </c>
-      <c r="H363">
-        <v>-20.934999999999999</v>
-      </c>
-      <c r="I363">
-        <v>12.256</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A364">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="B364">
-        <v>0.251</v>
-      </c>
-      <c r="C364">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="D364">
-        <v>174.37700000000001</v>
-      </c>
-      <c r="E364">
-        <v>-6.2869999999999999</v>
-      </c>
-      <c r="F364">
-        <v>-2.8690000000000002</v>
-      </c>
-      <c r="G364">
-        <v>29.59</v>
-      </c>
-      <c r="H364">
-        <v>-18.372</v>
-      </c>
-      <c r="I364">
-        <v>9.3019999999999996</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A365">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="B365">
-        <v>-0.161</v>
-      </c>
-      <c r="C365">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="D365">
-        <v>260.68099999999998</v>
-      </c>
-      <c r="E365">
-        <v>-8.1790000000000003</v>
-      </c>
-      <c r="F365">
-        <v>12.023999999999999</v>
-      </c>
-      <c r="G365">
-        <v>28.882000000000001</v>
-      </c>
-      <c r="H365">
-        <v>-14.513999999999999</v>
-      </c>
-      <c r="I365">
-        <v>6.6280000000000001</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="B366">
-        <v>-0.38600000000000001</v>
-      </c>
-      <c r="C366">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="D366">
-        <v>137.756</v>
-      </c>
-      <c r="E366">
-        <v>-3.3570000000000002</v>
-      </c>
-      <c r="F366">
-        <v>25.207999999999998</v>
-      </c>
-      <c r="G366">
-        <v>28.43</v>
-      </c>
-      <c r="H366">
-        <v>-10.779</v>
-      </c>
-      <c r="I366">
-        <v>5.298</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="B367">
-        <v>-0.65500000000000003</v>
-      </c>
-      <c r="C367">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="D367">
-        <v>-52.673000000000002</v>
-      </c>
-      <c r="E367">
-        <v>12.085000000000001</v>
-      </c>
-      <c r="F367">
-        <v>4.883</v>
-      </c>
-      <c r="G367">
-        <v>28.954999999999998</v>
-      </c>
-      <c r="H367">
-        <v>-9.8390000000000004</v>
-      </c>
-      <c r="I367">
-        <v>6.2130000000000001</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A368">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="B368">
-        <v>-0.32200000000000001</v>
-      </c>
-      <c r="C368">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="D368">
-        <v>-194.15299999999999</v>
-      </c>
-      <c r="E368">
-        <v>-6.8360000000000003</v>
-      </c>
-      <c r="F368">
-        <v>-27.466000000000001</v>
-      </c>
-      <c r="G368">
-        <v>28.931000000000001</v>
-      </c>
-      <c r="H368">
-        <v>-13.061999999999999</v>
-      </c>
-      <c r="I368">
-        <v>6.4580000000000002</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="B369">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-      <c r="C369">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="D369">
-        <v>-289.42899999999997</v>
-      </c>
-      <c r="E369">
-        <v>25.024000000000001</v>
-      </c>
-      <c r="F369">
-        <v>-25.757000000000001</v>
-      </c>
-      <c r="G369">
-        <v>30.042000000000002</v>
-      </c>
-      <c r="H369">
-        <v>-18.079000000000001</v>
-      </c>
-      <c r="I369">
-        <v>8.3010000000000002</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="B370">
-        <v>0.375</v>
-      </c>
-      <c r="C370">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="D370">
-        <v>-226.25700000000001</v>
-      </c>
-      <c r="E370">
-        <v>11.536</v>
-      </c>
-      <c r="F370">
-        <v>2.4409999999999998</v>
-      </c>
-      <c r="G370">
-        <v>30.187999999999999</v>
-      </c>
-      <c r="H370">
-        <v>-22.437000000000001</v>
-      </c>
-      <c r="I370">
-        <v>12.952</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="B371">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="C371">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="D371">
-        <v>-161.98699999999999</v>
-      </c>
-      <c r="E371">
-        <v>-17.029</v>
-      </c>
-      <c r="F371">
-        <v>-4.2110000000000003</v>
-      </c>
-      <c r="G371">
-        <v>30.126999999999999</v>
-      </c>
-      <c r="H371">
-        <v>-24.17</v>
-      </c>
-      <c r="I371">
-        <v>16.04</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="B372">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="C372">
-        <v>0.68</v>
-      </c>
-      <c r="D372">
-        <v>-22.094999999999999</v>
-      </c>
-      <c r="E372">
-        <v>-9.4600000000000009</v>
-      </c>
-      <c r="F372">
-        <v>-33.813000000000002</v>
-      </c>
-      <c r="G372">
-        <v>30.212</v>
-      </c>
-      <c r="H372">
-        <v>-24.78</v>
-      </c>
-      <c r="I372">
-        <v>16.771999999999998</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="B373">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="C373">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D373">
-        <v>137.08500000000001</v>
-      </c>
-      <c r="E373">
-        <v>-10.375999999999999</v>
-      </c>
-      <c r="F373">
-        <v>-12.695</v>
-      </c>
-      <c r="G373">
-        <v>30.762</v>
-      </c>
-      <c r="H373">
-        <v>-23.792000000000002</v>
-      </c>
-      <c r="I373">
-        <v>16.626000000000001</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="B374">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C374">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="D374">
-        <v>236.023</v>
-      </c>
-      <c r="E374">
-        <v>-77.881</v>
-      </c>
-      <c r="F374">
-        <v>-10.01</v>
-      </c>
-      <c r="G374">
-        <v>30.164000000000001</v>
-      </c>
-      <c r="H374">
-        <v>-21.875</v>
-      </c>
-      <c r="I374">
-        <v>11.377000000000001</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="B375">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="C375">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="D375">
-        <v>277.10000000000002</v>
-      </c>
-      <c r="E375">
-        <v>-67.992999999999995</v>
-      </c>
-      <c r="F375">
-        <v>-13</v>
-      </c>
-      <c r="G375">
-        <v>28.893999999999998</v>
-      </c>
-      <c r="H375">
-        <v>-17.48</v>
-      </c>
-      <c r="I375">
-        <v>8.4469999999999992</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="B376">
-        <v>-0.23</v>
-      </c>
-      <c r="C376">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="D376">
-        <v>244.14099999999999</v>
-      </c>
-      <c r="E376">
-        <v>-23.56</v>
-      </c>
-      <c r="F376">
-        <v>28.687000000000001</v>
-      </c>
-      <c r="G376">
-        <v>28.271000000000001</v>
-      </c>
-      <c r="H376">
-        <v>-12.378</v>
-      </c>
-      <c r="I376">
-        <v>5.6029999999999998</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="B377">
-        <v>-0.44600000000000001</v>
-      </c>
-      <c r="C377">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="D377">
-        <v>57.067999999999998</v>
-      </c>
-      <c r="E377">
-        <v>8.3010000000000002</v>
-      </c>
-      <c r="F377">
-        <v>63.66</v>
-      </c>
-      <c r="G377">
-        <v>27.795000000000002</v>
-      </c>
-      <c r="H377">
-        <v>-9.4730000000000008</v>
-      </c>
-      <c r="I377">
-        <v>5.7859999999999996</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <v>0.625</v>
-      </c>
-      <c r="B378">
-        <v>-0.51300000000000001</v>
-      </c>
-      <c r="C378">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="D378">
-        <v>-141.66300000000001</v>
-      </c>
-      <c r="E378">
-        <v>1.282</v>
-      </c>
-      <c r="F378">
-        <v>15.137</v>
-      </c>
-      <c r="G378">
-        <v>28.271000000000001</v>
-      </c>
-      <c r="H378">
-        <v>-10.95</v>
-      </c>
-      <c r="I378">
-        <v>5.4080000000000004</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="B379">
-        <v>-0.23499999999999999</v>
-      </c>
-      <c r="C379">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="D379">
-        <v>-312.74400000000003</v>
-      </c>
-      <c r="E379">
-        <v>-21.117999999999999</v>
-      </c>
-      <c r="F379">
-        <v>-21.667000000000002</v>
-      </c>
-      <c r="G379">
-        <v>27.625</v>
-      </c>
-      <c r="H379">
-        <v>-16.138000000000002</v>
-      </c>
-      <c r="I379">
-        <v>7.7270000000000003</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="B380">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="C380">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D380">
-        <v>-231.75</v>
-      </c>
-      <c r="E380">
-        <v>-31.067</v>
-      </c>
-      <c r="F380">
-        <v>-30.579000000000001</v>
-      </c>
-      <c r="G380">
-        <v>27.222000000000001</v>
-      </c>
-      <c r="H380">
-        <v>-20.081</v>
-      </c>
-      <c r="I380">
-        <v>11.499000000000001</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <v>0.442</v>
-      </c>
-      <c r="B381">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C381">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="D381">
-        <v>-9.1549999999999994</v>
-      </c>
-      <c r="E381">
-        <v>24.658000000000001</v>
-      </c>
-      <c r="F381">
-        <v>-70.495999999999995</v>
-      </c>
-      <c r="G381">
-        <v>28.832999999999998</v>
-      </c>
-      <c r="H381">
-        <v>-21.387</v>
-      </c>
-      <c r="I381">
-        <v>14.307</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="B382">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="C382">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D382">
-        <v>95.093000000000004</v>
-      </c>
-      <c r="E382">
-        <v>12.207000000000001</v>
-      </c>
-      <c r="F382">
-        <v>-68.542000000000002</v>
-      </c>
-      <c r="G382">
-        <v>29.797000000000001</v>
-      </c>
-      <c r="H382">
-        <v>-21.045000000000002</v>
-      </c>
-      <c r="I382">
-        <v>11.121</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A383">
-        <v>0.433</v>
-      </c>
-      <c r="B383">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="C383">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="D383">
-        <v>120.911</v>
-      </c>
-      <c r="E383">
-        <v>-29.114000000000001</v>
-      </c>
-      <c r="F383">
-        <v>-61.951000000000001</v>
-      </c>
-      <c r="G383">
-        <v>30.884</v>
-      </c>
-      <c r="H383">
-        <v>-19.530999999999999</v>
-      </c>
-      <c r="I383">
-        <v>10.156000000000001</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A384">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="B384">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="C384">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="D384">
-        <v>50.048999999999999</v>
-      </c>
-      <c r="E384">
-        <v>-7.7510000000000003</v>
-      </c>
-      <c r="F384">
-        <v>-7.3239999999999998</v>
-      </c>
-      <c r="G384">
-        <v>31.286999999999999</v>
-      </c>
-      <c r="H384">
-        <v>-18.506</v>
-      </c>
-      <c r="I384">
-        <v>10.045999999999999</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="B385">
-        <v>0.04</v>
-      </c>
-      <c r="C385">
-        <v>0.83</v>
-      </c>
-      <c r="D385">
-        <v>-3.3570000000000002</v>
-      </c>
-      <c r="E385">
-        <v>22.704999999999998</v>
-      </c>
-      <c r="F385">
-        <v>52.49</v>
-      </c>
-      <c r="G385">
-        <v>30.981000000000002</v>
-      </c>
-      <c r="H385">
-        <v>-18.175999999999998</v>
-      </c>
-      <c r="I385">
-        <v>8.4469999999999992</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="B386">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="C386">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="D386">
-        <v>-31.128</v>
-      </c>
-      <c r="E386">
-        <v>-2.9910000000000001</v>
-      </c>
-      <c r="F386">
-        <v>74.524000000000001</v>
-      </c>
-      <c r="G386">
-        <v>30.273</v>
-      </c>
-      <c r="H386">
-        <v>-18.481000000000002</v>
-      </c>
-      <c r="I386">
-        <v>9.7780000000000005</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="B387">
-        <v>-0.13400000000000001</v>
-      </c>
-      <c r="C387">
-        <v>0.875</v>
-      </c>
-      <c r="D387">
-        <v>-45.776000000000003</v>
-      </c>
-      <c r="E387">
-        <v>-19.347999999999999</v>
-      </c>
-      <c r="F387">
-        <v>94.177000000000007</v>
-      </c>
-      <c r="G387">
-        <v>28.356999999999999</v>
-      </c>
-      <c r="H387">
-        <v>-18.518000000000001</v>
-      </c>
-      <c r="I387">
-        <v>9.1059999999999999</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="B388">
-        <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="C388">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="D388">
-        <v>-90.453999999999994</v>
-      </c>
-      <c r="E388">
-        <v>-11.047000000000001</v>
-      </c>
-      <c r="F388">
-        <v>76.965000000000003</v>
-      </c>
-      <c r="G388">
-        <v>26.513999999999999</v>
-      </c>
-      <c r="H388">
-        <v>-18.835000000000001</v>
-      </c>
-      <c r="I388">
-        <v>11.510999999999999</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="B389">
-        <v>-0.19</v>
-      </c>
-      <c r="C389">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="D389">
-        <v>-85.082999999999998</v>
-      </c>
-      <c r="E389">
-        <v>18.616</v>
-      </c>
-      <c r="F389">
-        <v>17.395</v>
-      </c>
-      <c r="G389">
-        <v>26.379000000000001</v>
-      </c>
-      <c r="H389">
-        <v>-20.081</v>
-      </c>
-      <c r="I389">
-        <v>11.510999999999999</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="B390">
-        <v>0.159</v>
-      </c>
-      <c r="C390">
-        <v>0.872</v>
-      </c>
-      <c r="D390">
-        <v>-79.284999999999997</v>
-      </c>
-      <c r="E390">
-        <v>17.821999999999999</v>
-      </c>
-      <c r="F390">
-        <v>-47.912999999999997</v>
-      </c>
-      <c r="G390">
-        <v>27.539000000000001</v>
-      </c>
-      <c r="H390">
-        <v>-21.143000000000001</v>
-      </c>
-      <c r="I390">
-        <v>12.598000000000001</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="B391">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="C391">
-        <v>0.77</v>
-      </c>
-      <c r="D391">
-        <v>-4.3330000000000002</v>
-      </c>
-      <c r="E391">
-        <v>2.1970000000000001</v>
-      </c>
-      <c r="F391">
-        <v>-97.472999999999999</v>
-      </c>
-      <c r="G391">
-        <v>29.248000000000001</v>
-      </c>
-      <c r="H391">
-        <v>-22.033999999999999</v>
-      </c>
-      <c r="I391">
-        <v>14.307</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="B392">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="C392">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="D392">
-        <v>65.978999999999999</v>
-      </c>
-      <c r="E392">
-        <v>23.742999999999999</v>
-      </c>
-      <c r="F392">
-        <v>-112</v>
-      </c>
-      <c r="G392">
-        <v>30.591000000000001</v>
-      </c>
-      <c r="H392">
-        <v>-22.582999999999998</v>
-      </c>
-      <c r="I392">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="B393">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="C393">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="D393">
-        <v>126.831</v>
-      </c>
-      <c r="E393">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="F393">
-        <v>-61.401000000000003</v>
-      </c>
-      <c r="G393">
-        <v>32.287999999999997</v>
-      </c>
-      <c r="H393">
-        <v>-20.568999999999999</v>
-      </c>
-      <c r="I393">
-        <v>10.228999999999999</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="B394">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="C394">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="D394">
-        <v>74.28</v>
-      </c>
-      <c r="E394">
-        <v>-30.396000000000001</v>
-      </c>
-      <c r="F394">
-        <v>-29.297000000000001</v>
-      </c>
-      <c r="G394">
-        <v>32.581000000000003</v>
-      </c>
-      <c r="H394">
-        <v>-19.788</v>
-      </c>
-      <c r="I394">
-        <v>8.5690000000000008</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A395">
-        <v>0.438</v>
-      </c>
-      <c r="B395">
-        <v>-0.16</v>
-      </c>
-      <c r="C395">
-        <v>0.753</v>
-      </c>
-      <c r="D395">
-        <v>40.1</v>
-      </c>
-      <c r="E395">
-        <v>-34.423999999999999</v>
-      </c>
-      <c r="F395">
-        <v>-1.038</v>
-      </c>
-      <c r="G395">
-        <v>31.677</v>
-      </c>
-      <c r="H395">
-        <v>-19.079999999999998</v>
-      </c>
-      <c r="I395">
-        <v>9.4359999999999999</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A396">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="B396">
-        <v>-0.3</v>
-      </c>
-      <c r="C396">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="D396">
-        <v>-18.433</v>
-      </c>
-      <c r="E396">
-        <v>-18.86</v>
-      </c>
-      <c r="F396">
-        <v>18.494</v>
-      </c>
-      <c r="G396">
-        <v>31.164999999999999</v>
-      </c>
-      <c r="H396">
-        <v>-18.86</v>
-      </c>
-      <c r="I396">
-        <v>8.4589999999999996</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A397">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="B397">
-        <v>-0.222</v>
-      </c>
-      <c r="C397">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="D397">
-        <v>12.451000000000001</v>
-      </c>
-      <c r="E397">
-        <v>-14.404</v>
-      </c>
-      <c r="F397">
-        <v>19.408999999999999</v>
-      </c>
-      <c r="G397">
-        <v>30.614999999999998</v>
-      </c>
-      <c r="H397">
-        <v>-18.872</v>
-      </c>
-      <c r="I397">
-        <v>9.0579999999999998</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A398">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="B398">
-        <v>-0.17299999999999999</v>
-      </c>
-      <c r="C398">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="D398">
-        <v>11.78</v>
-      </c>
-      <c r="E398">
-        <v>-20.873999999999999</v>
-      </c>
-      <c r="F398">
-        <v>22.094999999999999</v>
-      </c>
-      <c r="G398">
-        <v>30.457000000000001</v>
-      </c>
-      <c r="H398">
-        <v>-18.372</v>
-      </c>
-      <c r="I398">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A399">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="B399">
-        <v>-0.22</v>
-      </c>
-      <c r="C399">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="D399">
-        <v>-106.384</v>
-      </c>
-      <c r="E399">
-        <v>-2.9910000000000001</v>
-      </c>
-      <c r="F399">
-        <v>23.742999999999999</v>
-      </c>
-      <c r="G399">
-        <v>29.773</v>
-      </c>
-      <c r="H399">
-        <v>-19.812000000000001</v>
-      </c>
-      <c r="I399">
-        <v>8.7520000000000007</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A400">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="B400">
-        <v>-0.02</v>
-      </c>
-      <c r="C400">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="D400">
-        <v>-165.77099999999999</v>
-      </c>
-      <c r="E400">
-        <v>-4.2110000000000003</v>
-      </c>
-      <c r="F400">
-        <v>11.108000000000001</v>
-      </c>
-      <c r="G400">
-        <v>29.882999999999999</v>
-      </c>
-      <c r="H400">
-        <v>-22.4</v>
-      </c>
-      <c r="I400">
-        <v>11.401</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A401">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="B401">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="C401">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="D401">
-        <v>-100.83</v>
-      </c>
-      <c r="E401">
-        <v>-24.414000000000001</v>
-      </c>
-      <c r="F401">
-        <v>-19.286999999999999</v>
-      </c>
-      <c r="G401">
-        <v>29.236000000000001</v>
-      </c>
-      <c r="H401">
-        <v>-23.364000000000001</v>
-      </c>
-      <c r="I401">
-        <v>14.246</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A402">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="B402">
-        <v>0.215</v>
-      </c>
-      <c r="C402">
-        <v>0.872</v>
-      </c>
-      <c r="D402">
-        <v>-24.597000000000001</v>
-      </c>
-      <c r="E402">
-        <v>-38.573999999999998</v>
-      </c>
-      <c r="F402">
-        <v>18.25</v>
-      </c>
-      <c r="G402">
-        <v>28.247</v>
-      </c>
-      <c r="H402">
-        <v>-23.486000000000001</v>
-      </c>
-      <c r="I402">
-        <v>15.112</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A403">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="B403">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="C403">
-        <v>1.012</v>
-      </c>
-      <c r="D403">
-        <v>36.194000000000003</v>
-      </c>
-      <c r="E403">
-        <v>-19.591999999999999</v>
-      </c>
-      <c r="F403">
-        <v>6.47</v>
-      </c>
-      <c r="G403">
-        <v>27.783000000000001</v>
-      </c>
-      <c r="H403">
-        <v>-22.571000000000002</v>
-      </c>
-      <c r="I403">
-        <v>14.196999999999999</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A404">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="B404">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="C404">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="D404">
-        <v>132.08000000000001</v>
-      </c>
-      <c r="E404">
-        <v>0.61</v>
-      </c>
-      <c r="F404">
-        <v>-41.381999999999998</v>
-      </c>
-      <c r="G404">
-        <v>28.417999999999999</v>
-      </c>
-      <c r="H404">
-        <v>-21.741</v>
-      </c>
-      <c r="I404">
-        <v>13.574</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A405">
-        <v>0.439</v>
-      </c>
-      <c r="B405">
-        <v>-6.3E-2</v>
-      </c>
-      <c r="C405">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="D405">
-        <v>113.22</v>
-      </c>
-      <c r="E405">
-        <v>17.821999999999999</v>
-      </c>
-      <c r="F405">
-        <v>-51.024999999999999</v>
-      </c>
-      <c r="G405">
-        <v>29.346</v>
-      </c>
-      <c r="H405">
-        <v>-20.398</v>
-      </c>
-      <c r="I405">
-        <v>11.157</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="B406">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C406">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="D406">
-        <v>3.3570000000000002</v>
-      </c>
-      <c r="E406">
-        <v>37.048000000000002</v>
-      </c>
-      <c r="F406">
-        <v>-26.855</v>
-      </c>
-      <c r="G406">
-        <v>30.579000000000001</v>
-      </c>
-      <c r="H406">
-        <v>-20.3</v>
-      </c>
-      <c r="I406">
-        <v>10.095000000000001</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A407">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="B407">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-      <c r="C407">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="D407">
-        <v>9.5830000000000002</v>
-      </c>
-      <c r="E407">
-        <v>39.49</v>
-      </c>
-      <c r="F407">
-        <v>-2.5630000000000002</v>
-      </c>
-      <c r="G407">
-        <v>31.018000000000001</v>
-      </c>
-      <c r="H407">
-        <v>-19.91</v>
-      </c>
-      <c r="I407">
-        <v>10.84</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A408">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="B408">
-        <v>-0.128</v>
-      </c>
-      <c r="C408">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="D408">
-        <v>-56.152000000000001</v>
-      </c>
-      <c r="E408">
-        <v>37.597999999999999</v>
-      </c>
-      <c r="F408">
-        <v>29.419</v>
-      </c>
-      <c r="G408">
-        <v>30.908000000000001</v>
-      </c>
-      <c r="H408">
-        <v>-20.471</v>
-      </c>
-      <c r="I408">
-        <v>11.377000000000001</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="B409">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C409">
-        <v>0.879</v>
-      </c>
-      <c r="D409">
-        <v>-128.357</v>
-      </c>
-      <c r="E409">
-        <v>6.5309999999999997</v>
-      </c>
-      <c r="F409">
-        <v>37.109000000000002</v>
-      </c>
-      <c r="G409">
-        <v>30.664000000000001</v>
-      </c>
-      <c r="H409">
-        <v>-21.826000000000001</v>
-      </c>
-      <c r="I409">
-        <v>12.634</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A410">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="B410">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="C410">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="D410">
-        <v>-39.49</v>
-      </c>
-      <c r="E410">
-        <v>-43.274000000000001</v>
-      </c>
-      <c r="F410">
-        <v>17.577999999999999</v>
-      </c>
-      <c r="G410">
-        <v>30.260999999999999</v>
-      </c>
-      <c r="H410">
-        <v>-22.9</v>
-      </c>
-      <c r="I410">
-        <v>13.11</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A411">
-        <v>0.497</v>
-      </c>
-      <c r="B411">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="C411">
-        <v>0.79</v>
-      </c>
-      <c r="D411">
-        <v>-91.614000000000004</v>
-      </c>
-      <c r="E411">
-        <v>-12.329000000000001</v>
-      </c>
-      <c r="F411">
-        <v>13.977</v>
-      </c>
-      <c r="G411">
-        <v>29.285</v>
-      </c>
-      <c r="H411">
-        <v>-23.071000000000002</v>
-      </c>
-      <c r="I411">
-        <v>15.601000000000001</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A412">
-        <v>0.505</v>
-      </c>
-      <c r="B412">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="C412">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="D412">
-        <v>-41.137999999999998</v>
-      </c>
-      <c r="E412">
-        <v>-2.6859999999999999</v>
-      </c>
-      <c r="F412">
-        <v>17.151</v>
-      </c>
-      <c r="G412">
-        <v>29.346</v>
-      </c>
-      <c r="H412">
-        <v>-23.425000000000001</v>
-      </c>
-      <c r="I412">
-        <v>16.064</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A413">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="B413">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="C413">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="D413">
-        <v>36.072000000000003</v>
-      </c>
-      <c r="E413">
-        <v>-1.4039999999999999</v>
-      </c>
-      <c r="F413">
-        <v>3.2349999999999999</v>
-      </c>
-      <c r="G413">
-        <v>28.600999999999999</v>
-      </c>
-      <c r="H413">
-        <v>-22.925000000000001</v>
-      </c>
-      <c r="I413">
-        <v>15.795999999999999</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A414">
-        <v>0.437</v>
-      </c>
-      <c r="B414">
-        <v>0.183</v>
-      </c>
-      <c r="C414">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="D414">
-        <v>61.523000000000003</v>
-      </c>
-      <c r="E414">
-        <v>-2.1970000000000001</v>
-      </c>
-      <c r="F414">
-        <v>-20.385999999999999</v>
-      </c>
-      <c r="G414">
-        <v>29.187000000000001</v>
-      </c>
-      <c r="H414">
-        <v>-23.218</v>
-      </c>
-      <c r="I414">
-        <v>15.198</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="B415">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="C415">
-        <v>0.94</v>
-      </c>
-      <c r="D415">
-        <v>125.61</v>
-      </c>
-      <c r="E415">
-        <v>-2.1970000000000001</v>
-      </c>
-      <c r="F415">
-        <v>-35.094999999999999</v>
-      </c>
-      <c r="G415">
-        <v>29.675000000000001</v>
-      </c>
-      <c r="H415">
-        <v>-22.388000000000002</v>
-      </c>
-      <c r="I415">
-        <v>13.305999999999999</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A416">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="B416">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="C416">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="D416">
-        <v>47.912999999999997</v>
-      </c>
-      <c r="E416">
-        <v>-17.7</v>
-      </c>
-      <c r="F416">
-        <v>-38.94</v>
-      </c>
-      <c r="G416">
-        <v>29.834</v>
-      </c>
-      <c r="H416">
-        <v>-21.289000000000001</v>
-      </c>
-      <c r="I416">
-        <v>11.901999999999999</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A417">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="B417">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C417">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="D417">
-        <v>21.911999999999999</v>
-      </c>
-      <c r="E417">
-        <v>-7.8739999999999997</v>
-      </c>
-      <c r="F417">
-        <v>-28.503</v>
-      </c>
-      <c r="G417">
-        <v>30.273</v>
-      </c>
-      <c r="H417">
-        <v>-21.13</v>
-      </c>
-      <c r="I417">
-        <v>11.327999999999999</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A418">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="B418">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C418">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="D418">
-        <v>-0.30499999999999999</v>
-      </c>
-      <c r="E418">
-        <v>8.24</v>
-      </c>
-      <c r="F418">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G418">
-        <v>29.821999999999999</v>
-      </c>
-      <c r="H418">
-        <v>-20.873999999999999</v>
-      </c>
-      <c r="I418">
-        <v>11.816000000000001</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A419">
-        <v>0.501</v>
-      </c>
-      <c r="B419">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C419">
-        <v>0.878</v>
-      </c>
-      <c r="D419">
-        <v>-6.7140000000000004</v>
-      </c>
-      <c r="E419">
-        <v>16.968</v>
-      </c>
-      <c r="F419">
-        <v>27.588000000000001</v>
-      </c>
-      <c r="G419">
-        <v>30.408000000000001</v>
-      </c>
-      <c r="H419">
-        <v>-20.812999999999999</v>
-      </c>
-      <c r="I419">
-        <v>11.279</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A420">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="B420">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C420">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="D420">
-        <v>-32.287999999999997</v>
-      </c>
-      <c r="E420">
-        <v>21.545000000000002</v>
-      </c>
-      <c r="F420">
-        <v>48.584000000000003</v>
-      </c>
-      <c r="G420">
-        <v>29.15</v>
-      </c>
-      <c r="H420">
-        <v>-21.117999999999999</v>
-      </c>
-      <c r="I420">
-        <v>12.512</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A421">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="B421">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="C421">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D421">
-        <v>-94.421000000000006</v>
-      </c>
-      <c r="E421">
-        <v>39.49</v>
-      </c>
-      <c r="F421">
-        <v>57.982999999999997</v>
-      </c>
-      <c r="G421">
-        <v>28.905999999999999</v>
-      </c>
-      <c r="H421">
-        <v>-21.741</v>
-      </c>
-      <c r="I421">
-        <v>12.914999999999999</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A422">
-        <v>0.53</v>
-      </c>
-      <c r="B422">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="C422">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="D422">
-        <v>-79.712000000000003</v>
-      </c>
-      <c r="E422">
-        <v>35.338999999999999</v>
-      </c>
-      <c r="F422">
-        <v>57.128999999999998</v>
-      </c>
-      <c r="G422">
-        <v>28.734999999999999</v>
-      </c>
-      <c r="H422">
-        <v>-21.972999999999999</v>
-      </c>
-      <c r="I422">
-        <v>13.147</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A423">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="B423">
-        <v>0.21</v>
-      </c>
-      <c r="C423">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="D423">
-        <v>-29.175000000000001</v>
-      </c>
-      <c r="E423">
-        <v>-6.0999999999999999E-2</v>
-      </c>
-      <c r="F423">
-        <v>27.832000000000001</v>
-      </c>
-      <c r="G423">
-        <v>28.04</v>
-      </c>
-      <c r="H423">
-        <v>-22.716999999999999</v>
-      </c>
-      <c r="I423">
-        <v>15.076000000000001</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A424">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="B424">
-        <v>0.255</v>
-      </c>
-      <c r="C424">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="D424">
-        <v>6.5919999999999996</v>
-      </c>
-      <c r="E424">
-        <v>-41.076999999999998</v>
-      </c>
-      <c r="F424">
-        <v>-19.347999999999999</v>
-      </c>
-      <c r="G424">
-        <v>27.672999999999998</v>
-      </c>
-      <c r="H424">
-        <v>-22.192</v>
-      </c>
-      <c r="I424">
-        <v>13.733000000000001</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A425">
-        <v>0.501</v>
-      </c>
-      <c r="B425">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="C425">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="D425">
-        <v>57.738999999999997</v>
-      </c>
-      <c r="E425">
-        <v>-55.786000000000001</v>
-      </c>
-      <c r="F425">
-        <v>-48.279000000000003</v>
-      </c>
-      <c r="G425">
-        <v>27.893000000000001</v>
-      </c>
-      <c r="H425">
-        <v>-22.594999999999999</v>
-      </c>
-      <c r="I425">
-        <v>13.904</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A426">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="B426">
-        <v>0.153</v>
-      </c>
-      <c r="C426">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="D426">
-        <v>10.558999999999999</v>
-      </c>
-      <c r="E426">
-        <v>-32.348999999999997</v>
-      </c>
-      <c r="F426">
-        <v>-58.777000000000001</v>
-      </c>
-      <c r="G426">
-        <v>27.881</v>
-      </c>
-      <c r="H426">
-        <v>-22.082999999999998</v>
-      </c>
-      <c r="I426">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>0.499</v>
-      </c>
-      <c r="B427">
-        <v>0.18</v>
-      </c>
-      <c r="C427">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="D427">
-        <v>34.728999999999999</v>
-      </c>
-      <c r="E427">
-        <v>-21.911999999999999</v>
-      </c>
-      <c r="F427">
-        <v>-45.715000000000003</v>
-      </c>
-      <c r="G427">
-        <v>28.917999999999999</v>
-      </c>
-      <c r="H427">
-        <v>-22.728999999999999</v>
-      </c>
-      <c r="I427">
-        <v>14.478</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A428">
-        <v>0.438</v>
-      </c>
-      <c r="B428">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="C428">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="D428">
-        <v>-1.099</v>
-      </c>
-      <c r="E428">
-        <v>-8.7279999999999998</v>
-      </c>
-      <c r="F428">
-        <v>-19.47</v>
-      </c>
-      <c r="G428">
-        <v>28.844999999999999</v>
-      </c>
-      <c r="H428">
-        <v>-22.18</v>
-      </c>
-      <c r="I428">
-        <v>14.391999999999999</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A429">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="B429">
-        <v>0.105</v>
-      </c>
-      <c r="C429">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="D429">
-        <v>48.095999999999997</v>
-      </c>
-      <c r="E429">
-        <v>-1.77</v>
-      </c>
-      <c r="F429">
-        <v>-18.920999999999999</v>
-      </c>
-      <c r="G429">
-        <v>29.126000000000001</v>
-      </c>
-      <c r="H429">
-        <v>-22.253</v>
-      </c>
-      <c r="I429">
-        <v>14.27</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A430">
-        <v>0.442</v>
-      </c>
-      <c r="B430">
-        <v>0.05</v>
-      </c>
-      <c r="C430">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="D430">
-        <v>76.355000000000004</v>
-      </c>
-      <c r="E430">
-        <v>-3.113</v>
-      </c>
-      <c r="F430">
-        <v>-20.751999999999999</v>
-      </c>
-      <c r="G430">
-        <v>29.943999999999999</v>
-      </c>
-      <c r="H430">
-        <v>-21.361999999999998</v>
-      </c>
-      <c r="I430">
-        <v>12.183</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A431">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="B431">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="C431">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="D431">
-        <v>70.557000000000002</v>
-      </c>
-      <c r="E431">
-        <v>24.902000000000001</v>
-      </c>
-      <c r="F431">
-        <v>10.986000000000001</v>
-      </c>
-      <c r="G431">
-        <v>29.468</v>
-      </c>
-      <c r="H431">
-        <v>-20.129000000000001</v>
-      </c>
-      <c r="I431">
-        <v>10.925000000000001</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A432">
-        <v>0.48</v>
-      </c>
-      <c r="B432">
-        <v>-0.125</v>
-      </c>
-      <c r="C432">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="D432">
-        <v>51.697000000000003</v>
-      </c>
-      <c r="E432">
-        <v>18.004999999999999</v>
-      </c>
-      <c r="F432">
-        <v>26.55</v>
-      </c>
-      <c r="G432">
-        <v>29.346</v>
-      </c>
-      <c r="H432">
-        <v>-19.238</v>
-      </c>
-      <c r="I432">
-        <v>9.3510000000000009</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A433">
-        <v>0.48</v>
-      </c>
-      <c r="B433">
-        <v>-0.152</v>
-      </c>
-      <c r="C433">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="D433">
-        <v>41.137999999999998</v>
-      </c>
-      <c r="E433">
-        <v>5.2489999999999997</v>
-      </c>
-      <c r="F433">
-        <v>13.061999999999999</v>
-      </c>
-      <c r="G433">
-        <v>29.163</v>
-      </c>
-      <c r="H433">
-        <v>-18.236999999999998</v>
-      </c>
-      <c r="I433">
-        <v>8.74</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A434">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="B434">
-        <v>-0.17599999999999999</v>
-      </c>
-      <c r="C434">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D434">
-        <v>-0.122</v>
-      </c>
-      <c r="E434">
-        <v>6.8970000000000002</v>
-      </c>
-      <c r="F434">
-        <v>4.6390000000000002</v>
-      </c>
-      <c r="G434">
-        <v>29.358000000000001</v>
-      </c>
-      <c r="H434">
-        <v>-17.931999999999999</v>
-      </c>
-      <c r="I434">
-        <v>7.8250000000000002</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A435">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="B435">
-        <v>-0.159</v>
-      </c>
-      <c r="C435">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="D435">
-        <v>-23.01</v>
-      </c>
-      <c r="E435">
-        <v>-2.0750000000000002</v>
-      </c>
-      <c r="F435">
-        <v>-1.4039999999999999</v>
-      </c>
-      <c r="G435">
-        <v>29.236000000000001</v>
-      </c>
-      <c r="H435">
-        <v>-18.677</v>
-      </c>
-      <c r="I435">
-        <v>8.6430000000000007</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A436">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="B436">
-        <v>-0.114</v>
-      </c>
-      <c r="C436">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="D436">
-        <v>-13.489000000000001</v>
-      </c>
-      <c r="E436">
-        <v>-13.855</v>
-      </c>
-      <c r="F436">
-        <v>-4.2720000000000002</v>
-      </c>
-      <c r="G436">
-        <v>29.651</v>
-      </c>
-      <c r="H436">
-        <v>-18.908999999999999</v>
-      </c>
-      <c r="I436">
-        <v>9.2289999999999992</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A437">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="B437">
-        <v>-0.123</v>
-      </c>
-      <c r="C437">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="D437">
-        <v>-26.855</v>
-      </c>
-      <c r="E437">
-        <v>-25.024000000000001</v>
-      </c>
-      <c r="F437">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="G437">
-        <v>29.236000000000001</v>
-      </c>
-      <c r="H437">
-        <v>-18.994</v>
-      </c>
-      <c r="I437">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A438">
-        <v>0.441</v>
-      </c>
-      <c r="B438">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-      <c r="C438">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="D438">
-        <v>-28.076000000000001</v>
-      </c>
-      <c r="E438">
-        <v>-18.065999999999999</v>
-      </c>
-      <c r="F438">
-        <v>-2.6859999999999999</v>
-      </c>
-      <c r="G438">
-        <v>28.125</v>
-      </c>
-      <c r="H438">
-        <v>-19.140999999999998</v>
-      </c>
-      <c r="I438">
-        <v>10.535</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <v>0.433</v>
-      </c>
-      <c r="B439">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="C439">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="D439">
-        <v>-11.047000000000001</v>
-      </c>
-      <c r="E439">
-        <v>-15.137</v>
-      </c>
-      <c r="F439">
-        <v>-2.5630000000000002</v>
-      </c>
-      <c r="G439">
-        <v>28.064</v>
-      </c>
-      <c r="H439">
-        <v>-19.8</v>
-      </c>
-      <c r="I439">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="B440">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C440">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="D440">
-        <v>-14.709</v>
-      </c>
-      <c r="E440">
-        <v>-11.475</v>
-      </c>
-      <c r="F440">
-        <v>-1.1599999999999999</v>
-      </c>
-      <c r="G440">
-        <v>27.832000000000001</v>
-      </c>
-      <c r="H440">
-        <v>-19.518999999999998</v>
-      </c>
-      <c r="I440">
-        <v>10.242000000000001</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A441">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="B441">
-        <v>0.04</v>
-      </c>
-      <c r="C441">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="D441">
-        <v>-2.9910000000000001</v>
-      </c>
-      <c r="E441">
-        <v>1.038</v>
-      </c>
-      <c r="F441">
-        <v>-1.77</v>
-      </c>
-      <c r="G441">
-        <v>28.04</v>
-      </c>
-      <c r="H441">
-        <v>-20.105</v>
-      </c>
-      <c r="I441">
-        <v>11.108000000000001</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A442">
-        <v>-0.49399999999999999</v>
-      </c>
-      <c r="B442">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="C442">
-        <v>1.026</v>
-      </c>
-      <c r="D442">
-        <v>-19.591999999999999</v>
-      </c>
-      <c r="E442">
-        <v>14.465</v>
-      </c>
-      <c r="F442">
-        <v>-75.683999999999997</v>
-      </c>
-      <c r="G442">
-        <v>27.954000000000001</v>
-      </c>
-      <c r="H442">
-        <v>-24.695</v>
-      </c>
-      <c r="I442">
-        <v>24.792000000000002</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A443">
-        <v>-0.33500000000000002</v>
-      </c>
-      <c r="B443">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="C443">
-        <v>1.06</v>
-      </c>
-      <c r="D443">
-        <v>-32.470999999999997</v>
-      </c>
-      <c r="E443">
-        <v>-39.734000000000002</v>
-      </c>
-      <c r="F443">
-        <v>-7.3239999999999998</v>
-      </c>
-      <c r="G443">
-        <v>27.991</v>
-      </c>
-      <c r="H443">
-        <v>-24.951000000000001</v>
-      </c>
-      <c r="I443">
-        <v>24.744</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A444">
-        <v>-0.434</v>
-      </c>
-      <c r="B444">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C444">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="D444">
-        <v>-30.701000000000001</v>
-      </c>
-      <c r="E444">
-        <v>-57.250999999999998</v>
-      </c>
-      <c r="F444">
-        <v>90.575999999999993</v>
-      </c>
-      <c r="G444">
-        <v>26.038</v>
-      </c>
-      <c r="H444">
-        <v>-24.17</v>
-      </c>
-      <c r="I444">
-        <v>25.818000000000001</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A445">
-        <v>-0.437</v>
-      </c>
-      <c r="B445">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="C445">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="D445">
-        <v>28.931000000000001</v>
-      </c>
-      <c r="E445">
-        <v>-61.768000000000001</v>
-      </c>
-      <c r="F445">
-        <v>160.339</v>
-      </c>
-      <c r="G445">
-        <v>23.486000000000001</v>
-      </c>
-      <c r="H445">
-        <v>-22.033999999999999</v>
-      </c>
-      <c r="I445">
-        <v>26.282</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A446">
-        <v>-0.61199999999999999</v>
-      </c>
-      <c r="B446">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="C446">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="D446">
-        <v>80.016999999999996</v>
-      </c>
-      <c r="E446">
-        <v>-33.325000000000003</v>
-      </c>
-      <c r="F446">
-        <v>164.429</v>
-      </c>
-      <c r="G446">
-        <v>20.434999999999999</v>
-      </c>
-      <c r="H446">
-        <v>-20.337</v>
-      </c>
-      <c r="I446">
-        <v>26.318000000000001</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A447">
-        <v>-0.55500000000000005</v>
-      </c>
-      <c r="B447">
-        <v>-0.29399999999999998</v>
-      </c>
-      <c r="C447">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="D447">
-        <v>149.78</v>
-      </c>
-      <c r="E447">
-        <v>22.582999999999998</v>
-      </c>
-      <c r="F447">
-        <v>88.745000000000005</v>
-      </c>
-      <c r="G447">
-        <v>18.469000000000001</v>
-      </c>
-      <c r="H447">
-        <v>-17.725000000000001</v>
-      </c>
-      <c r="I447">
-        <v>24.120999999999999</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>-0.496</v>
-      </c>
-      <c r="B448">
-        <v>-0.40799999999999997</v>
-      </c>
-      <c r="C448">
-        <v>0.71</v>
-      </c>
-      <c r="D448">
-        <v>49.927</v>
-      </c>
-      <c r="E448">
-        <v>101.685</v>
-      </c>
-      <c r="F448">
-        <v>65.978999999999999</v>
-      </c>
-      <c r="G448">
-        <v>18.201000000000001</v>
-      </c>
-      <c r="H448">
-        <v>-16.602</v>
-      </c>
-      <c r="I448">
-        <v>20.568999999999999</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A449">
-        <v>-0.38600000000000001</v>
-      </c>
-      <c r="B449">
-        <v>-0.46300000000000002</v>
-      </c>
-      <c r="C449">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="D449">
-        <v>6.2869999999999999</v>
-      </c>
-      <c r="E449">
-        <v>77.331999999999994</v>
-      </c>
-      <c r="F449">
-        <v>-10.742000000000001</v>
-      </c>
-      <c r="G449">
-        <v>18.567</v>
-      </c>
-      <c r="H449">
-        <v>-16.454999999999998</v>
-      </c>
-      <c r="I449">
-        <v>19.727</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A450">
-        <v>-0.29399999999999998</v>
-      </c>
-      <c r="B450">
-        <v>-0.29599999999999999</v>
-      </c>
-      <c r="C450">
-        <v>0.871</v>
-      </c>
-      <c r="D450">
-        <v>-91.37</v>
-      </c>
-      <c r="E450">
-        <v>70.557000000000002</v>
-      </c>
-      <c r="F450">
-        <v>-66.162000000000006</v>
-      </c>
-      <c r="G450">
-        <v>19.335999999999999</v>
-      </c>
-      <c r="H450">
-        <v>-17.114000000000001</v>
-      </c>
-      <c r="I450">
-        <v>19.591999999999999</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A451">
-        <v>-0.33500000000000002</v>
-      </c>
-      <c r="B451">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-      <c r="C451">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="D451">
-        <v>-110.962</v>
-      </c>
-      <c r="E451">
-        <v>25.390999999999998</v>
-      </c>
-      <c r="F451">
-        <v>-61.34</v>
-      </c>
-      <c r="G451">
-        <v>20.568999999999999</v>
-      </c>
-      <c r="H451">
-        <v>-18.981999999999999</v>
-      </c>
-      <c r="I451">
-        <v>20.324999999999999</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A452">
-        <v>-0.318</v>
-      </c>
-      <c r="B452">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C452">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="D452">
-        <v>-103.39400000000001</v>
-      </c>
-      <c r="E452">
-        <v>18.920999999999999</v>
-      </c>
-      <c r="F452">
-        <v>-44.067</v>
-      </c>
-      <c r="G452">
-        <v>21.387</v>
-      </c>
-      <c r="H452">
-        <v>-20.837</v>
-      </c>
-      <c r="I452">
-        <v>22.228999999999999</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A453">
-        <v>-0.32100000000000001</v>
-      </c>
-      <c r="B453">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C453">
-        <v>1.004</v>
-      </c>
-      <c r="D453">
-        <v>-62.927</v>
-      </c>
-      <c r="E453">
-        <v>16.907</v>
-      </c>
-      <c r="F453">
-        <v>1.7090000000000001</v>
-      </c>
-      <c r="G453">
-        <v>21.021000000000001</v>
-      </c>
-      <c r="H453">
-        <v>-20.728000000000002</v>
-      </c>
-      <c r="I453">
-        <v>22.143999999999998</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A454">
-        <v>-0.29899999999999999</v>
-      </c>
-      <c r="B454">
-        <v>-0.13400000000000001</v>
-      </c>
-      <c r="C454">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="D454">
-        <v>-10.864000000000001</v>
-      </c>
-      <c r="E454">
-        <v>10.864000000000001</v>
-      </c>
-      <c r="F454">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="G454">
-        <v>20.984000000000002</v>
-      </c>
-      <c r="H454">
-        <v>-20.861999999999998</v>
-      </c>
-      <c r="I454">
-        <v>22.571000000000002</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A455">
-        <v>-0.32100000000000001</v>
-      </c>
-      <c r="B455">
-        <v>4.7E-2</v>
-      </c>
-      <c r="C455">
-        <v>1.091</v>
-      </c>
-      <c r="D455">
-        <v>3.7229999999999999</v>
-      </c>
-      <c r="E455">
-        <v>-11.536</v>
-      </c>
-      <c r="F455">
-        <v>-24.963000000000001</v>
-      </c>
-      <c r="G455">
-        <v>21.375</v>
-      </c>
-      <c r="H455">
-        <v>-21.021000000000001</v>
-      </c>
-      <c r="I455">
-        <v>22.632000000000001</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A456">
-        <v>-0.309</v>
-      </c>
-      <c r="B456">
-        <v>0.155</v>
-      </c>
-      <c r="C456">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="D456">
-        <v>54.076999999999998</v>
-      </c>
-      <c r="E456">
-        <v>-52.429000000000002</v>
-      </c>
-      <c r="F456">
-        <v>-4.2110000000000003</v>
-      </c>
-      <c r="G456">
-        <v>21.814</v>
-      </c>
-      <c r="H456">
-        <v>-20.556999999999999</v>
-      </c>
-      <c r="I456">
-        <v>21.667000000000002</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A457">
-        <v>-0.33400000000000002</v>
-      </c>
-      <c r="B457">
-        <v>7.8E-2</v>
-      </c>
-      <c r="C457">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="D457">
-        <v>55.725000000000001</v>
-      </c>
-      <c r="E457">
-        <v>-55.725000000000001</v>
-      </c>
-      <c r="F457">
-        <v>22.643999999999998</v>
-      </c>
-      <c r="G457">
-        <v>21.056999999999999</v>
-      </c>
-      <c r="H457">
-        <v>-20.337</v>
-      </c>
-      <c r="I457">
-        <v>22.643999999999998</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A458">
-        <v>-0.46700000000000003</v>
-      </c>
-      <c r="B458">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="C458">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="D458">
-        <v>30.762</v>
-      </c>
-      <c r="E458">
-        <v>-55.359000000000002</v>
-      </c>
-      <c r="F458">
-        <v>45.165999999999997</v>
-      </c>
-      <c r="G458">
-        <v>20.154</v>
-      </c>
-      <c r="H458">
-        <v>-19.542999999999999</v>
-      </c>
-      <c r="I458">
-        <v>22.277999999999999</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A459">
-        <v>-0.50800000000000001</v>
-      </c>
-      <c r="B459">
-        <v>-0.157</v>
-      </c>
-      <c r="C459">
-        <v>0.745</v>
-      </c>
-      <c r="D459">
-        <v>20.385999999999999</v>
-      </c>
-      <c r="E459">
-        <v>-36.804000000000002</v>
-      </c>
-      <c r="F459">
-        <v>51.758000000000003</v>
-      </c>
-      <c r="G459">
-        <v>19.213999999999999</v>
-      </c>
-      <c r="H459">
-        <v>-18.64</v>
-      </c>
-      <c r="I459">
-        <v>22.632000000000001</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A460">
-        <v>-0.51200000000000001</v>
-      </c>
-      <c r="B460">
-        <v>-0.18099999999999999</v>
-      </c>
-      <c r="C460">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="D460">
-        <v>-18.004999999999999</v>
-      </c>
-      <c r="E460">
-        <v>15.076000000000001</v>
-      </c>
-      <c r="F460">
-        <v>51.575000000000003</v>
-      </c>
-      <c r="G460">
-        <v>18.677</v>
-      </c>
-      <c r="H460">
-        <v>-17.419</v>
-      </c>
-      <c r="I460">
-        <v>23.132000000000001</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A461">
-        <v>-0.43</v>
-      </c>
-      <c r="B461">
-        <v>-0.27800000000000002</v>
-      </c>
-      <c r="C461">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="D461">
-        <v>-70.313000000000002</v>
-      </c>
-      <c r="E461">
-        <v>45.348999999999997</v>
-      </c>
-      <c r="F461">
-        <v>33.203000000000003</v>
-      </c>
-      <c r="G461">
-        <v>17.712</v>
-      </c>
-      <c r="H461">
-        <v>-16.956</v>
-      </c>
-      <c r="I461">
-        <v>22.693000000000001</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A462">
-        <v>-0.30199999999999999</v>
-      </c>
-      <c r="B462">
-        <v>-0.189</v>
-      </c>
-      <c r="C462">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="D462">
-        <v>-61.523000000000003</v>
-      </c>
-      <c r="E462">
-        <v>68.176000000000002</v>
-      </c>
-      <c r="F462">
-        <v>-17.151</v>
-      </c>
-      <c r="G462">
-        <v>18.236999999999998</v>
-      </c>
-      <c r="H462">
-        <v>-17.187000000000001</v>
-      </c>
-      <c r="I462">
-        <v>22.423999999999999</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A463">
-        <v>-0.34599999999999997</v>
-      </c>
-      <c r="B463">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="C463">
-        <v>1.101</v>
-      </c>
-      <c r="D463">
-        <v>-50.353999999999999</v>
-      </c>
-      <c r="E463">
-        <v>29.419</v>
-      </c>
-      <c r="F463">
-        <v>-14.954000000000001</v>
-      </c>
-      <c r="G463">
-        <v>18.286000000000001</v>
-      </c>
-      <c r="H463">
-        <v>-17.456</v>
-      </c>
-      <c r="I463">
-        <v>21.655000000000001</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A464">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="B464">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="C464">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="D464">
-        <v>-38.94</v>
-      </c>
-      <c r="E464">
-        <v>8.1180000000000003</v>
-      </c>
-      <c r="F464">
-        <v>-17.456</v>
-      </c>
-      <c r="G464">
-        <v>18.616</v>
-      </c>
-      <c r="H464">
-        <v>-17.638999999999999</v>
-      </c>
-      <c r="I464">
-        <v>23.218</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A465">
-        <v>-0.29499999999999998</v>
-      </c>
-      <c r="B465">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C465">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="D465">
-        <v>-33.142000000000003</v>
-      </c>
-      <c r="E465">
-        <v>9.5210000000000008</v>
-      </c>
-      <c r="F465">
-        <v>-30.762</v>
-      </c>
-      <c r="G465">
-        <v>19.116</v>
-      </c>
-      <c r="H465">
-        <v>-17.748999999999999</v>
-      </c>
-      <c r="I465">
-        <v>23.376000000000001</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A466">
-        <v>-0.32300000000000001</v>
-      </c>
-      <c r="B466">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="C466">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="D466">
-        <v>-8.85</v>
-      </c>
-      <c r="E466">
-        <v>4.2110000000000003</v>
-      </c>
-      <c r="F466">
-        <v>-33.325000000000003</v>
-      </c>
-      <c r="G466">
-        <v>19.116</v>
-      </c>
-      <c r="H466">
-        <v>-18.677</v>
-      </c>
-      <c r="I466">
-        <v>23.571999999999999</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A467">
-        <v>-0.28299999999999997</v>
-      </c>
-      <c r="B467">
-        <v>0.11</v>
-      </c>
-      <c r="C467">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="D467">
-        <v>-5.859</v>
-      </c>
-      <c r="E467">
-        <v>-4.944</v>
-      </c>
-      <c r="F467">
-        <v>-26.55</v>
-      </c>
-      <c r="G467">
-        <v>19.727</v>
-      </c>
-      <c r="H467">
-        <v>-18.86</v>
-      </c>
-      <c r="I467">
-        <v>23.34</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A468">
-        <v>-0.27500000000000002</v>
-      </c>
-      <c r="B468">
-        <v>0.113</v>
-      </c>
-      <c r="C468">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="D468">
-        <v>-16.113</v>
-      </c>
-      <c r="E468">
-        <v>-10.62</v>
-      </c>
-      <c r="F468">
-        <v>-34.363</v>
-      </c>
-      <c r="G468">
-        <v>20.215</v>
-      </c>
-      <c r="H468">
-        <v>-19.481999999999999</v>
-      </c>
-      <c r="I468">
-        <v>24.866</v>
-      </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A469">
-        <v>-0.33800000000000002</v>
-      </c>
-      <c r="B469">
-        <v>0.154</v>
-      </c>
-      <c r="C469">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="D469">
-        <v>-20.02</v>
-      </c>
-      <c r="E469">
-        <v>-21.422999999999998</v>
-      </c>
-      <c r="F469">
-        <v>-32.287999999999997</v>
-      </c>
-      <c r="G469">
-        <v>20.861999999999998</v>
-      </c>
-      <c r="H469">
-        <v>-20.178000000000001</v>
-      </c>
-      <c r="I469">
-        <v>24.376999999999999</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A470">
-        <v>-0.36199999999999999</v>
-      </c>
-      <c r="B470">
-        <v>0.185</v>
-      </c>
-      <c r="C470">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D470">
-        <v>-11.657999999999999</v>
-      </c>
-      <c r="E470">
-        <v>-22.338999999999999</v>
-      </c>
-      <c r="F470">
-        <v>-26.367000000000001</v>
-      </c>
-      <c r="G470">
-        <v>21.143000000000001</v>
-      </c>
-      <c r="H470">
-        <v>-20.117000000000001</v>
-      </c>
-      <c r="I470">
-        <v>25.574000000000002</v>
-      </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A471">
-        <v>-0.34599999999999997</v>
-      </c>
-      <c r="B471">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="C471">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="D471">
-        <v>-1.343</v>
-      </c>
-      <c r="E471">
-        <v>-17.943999999999999</v>
-      </c>
-      <c r="F471">
-        <v>-8.24</v>
-      </c>
-      <c r="G471">
-        <v>20.911000000000001</v>
-      </c>
-      <c r="H471">
-        <v>-20.959</v>
-      </c>
-      <c r="I471">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A472">
-        <v>-0.372</v>
-      </c>
-      <c r="B472">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="C472">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="D472">
-        <v>7.8739999999999997</v>
-      </c>
-      <c r="E472">
-        <v>-12.085000000000001</v>
-      </c>
-      <c r="F472">
-        <v>7.69</v>
-      </c>
-      <c r="G472">
-        <v>21.068999999999999</v>
-      </c>
-      <c r="H472">
-        <v>-20.361000000000001</v>
-      </c>
-      <c r="I472">
-        <v>25.061</v>
-      </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A473">
-        <v>-0.38800000000000001</v>
-      </c>
-      <c r="B473">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="C473">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="D473">
-        <v>30.273</v>
-      </c>
-      <c r="E473">
-        <v>5.0659999999999998</v>
-      </c>
-      <c r="F473">
-        <v>10.803000000000001</v>
-      </c>
-      <c r="G473">
-        <v>20.812999999999999</v>
-      </c>
-      <c r="H473">
-        <v>-20.056000000000001</v>
-      </c>
-      <c r="I473">
-        <v>24.951000000000001</v>
-      </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A474">
-        <v>-0.32400000000000001</v>
-      </c>
-      <c r="B474">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="C474">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="D474">
-        <v>33.203000000000003</v>
-      </c>
-      <c r="E474">
-        <v>18.677</v>
-      </c>
-      <c r="F474">
-        <v>0.61</v>
-      </c>
-      <c r="G474">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="H474">
-        <v>-20.593</v>
-      </c>
-      <c r="I474">
-        <v>23.632999999999999</v>
-      </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A475">
-        <v>-0.33500000000000002</v>
-      </c>
-      <c r="B475">
-        <v>6.2E-2</v>
-      </c>
-      <c r="C475">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D475">
-        <v>18.555</v>
-      </c>
-      <c r="E475">
-        <v>13.733000000000001</v>
-      </c>
-      <c r="F475">
-        <v>-2.319</v>
-      </c>
-      <c r="G475">
-        <v>19.861000000000001</v>
-      </c>
-      <c r="H475">
-        <v>-20.215</v>
-      </c>
-      <c r="I475">
-        <v>24.193999999999999</v>
-      </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A476">
-        <v>-0.35699999999999998</v>
-      </c>
-      <c r="B476">
-        <v>0.108</v>
-      </c>
-      <c r="C476">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="D476">
-        <v>30.701000000000001</v>
-      </c>
-      <c r="E476">
-        <v>23.498999999999999</v>
-      </c>
-      <c r="F476">
-        <v>-5.92</v>
-      </c>
-      <c r="G476">
-        <v>20.41</v>
-      </c>
-      <c r="H476">
-        <v>-20.459</v>
-      </c>
-      <c r="I476">
-        <v>22.411999999999999</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A477">
-        <v>-0.315</v>
-      </c>
-      <c r="B477">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C477">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="D477">
-        <v>12.085000000000001</v>
-      </c>
-      <c r="E477">
-        <v>16.724</v>
-      </c>
-      <c r="F477">
-        <v>-4.5780000000000003</v>
-      </c>
-      <c r="G477">
-        <v>20.812999999999999</v>
-      </c>
-      <c r="H477">
-        <v>-20.056000000000001</v>
-      </c>
-      <c r="I477">
-        <v>21.899000000000001</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A478">
-        <v>-0.26200000000000001</v>
-      </c>
-      <c r="B478">
-        <v>4.7E-2</v>
-      </c>
-      <c r="C478">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="D478">
-        <v>-2.1970000000000001</v>
-      </c>
-      <c r="E478">
-        <v>5.6760000000000002</v>
-      </c>
-      <c r="F478">
-        <v>-10.925000000000001</v>
-      </c>
-      <c r="G478">
-        <v>20.605</v>
-      </c>
-      <c r="H478">
-        <v>-20.276</v>
-      </c>
-      <c r="I478">
-        <v>22.62</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A479">
-        <v>-0.27700000000000002</v>
-      </c>
-      <c r="B479">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C479">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D479">
-        <v>-4.2110000000000003</v>
-      </c>
-      <c r="E479">
-        <v>-4.4560000000000004</v>
-      </c>
-      <c r="F479">
-        <v>-12.695</v>
-      </c>
-      <c r="G479">
-        <v>20.824999999999999</v>
-      </c>
-      <c r="H479">
-        <v>-20.349</v>
-      </c>
-      <c r="I479">
-        <v>21.875</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A480">
-        <v>-0.32200000000000001</v>
-      </c>
-      <c r="B480">
-        <v>0</v>
-      </c>
-      <c r="C480">
-        <v>0.98</v>
-      </c>
-      <c r="D480">
-        <v>-13</v>
-      </c>
-      <c r="E480">
-        <v>-12.695</v>
-      </c>
-      <c r="F480">
-        <v>-3.3570000000000002</v>
-      </c>
-      <c r="G480">
-        <v>21.094000000000001</v>
-      </c>
-      <c r="H480">
-        <v>-20.227</v>
-      </c>
-      <c r="I480">
-        <v>23.01</v>
-      </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A481">
-        <v>-0.28899999999999998</v>
-      </c>
-      <c r="B481">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C481">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="D481">
-        <v>-12.695</v>
-      </c>
-      <c r="E481">
-        <v>-9.5830000000000002</v>
-      </c>
-      <c r="F481">
-        <v>-4.8220000000000001</v>
-      </c>
-      <c r="G481">
-        <v>21.448</v>
-      </c>
-      <c r="H481">
-        <v>-20.056000000000001</v>
-      </c>
-      <c r="I481">
-        <v>23.510999999999999</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A482">
-        <v>-0.317</v>
-      </c>
-      <c r="B482">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="C482">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D482">
-        <v>-17.151</v>
-      </c>
-      <c r="E482">
-        <v>-14.465</v>
-      </c>
-      <c r="F482">
-        <v>-4.6390000000000002</v>
-      </c>
-      <c r="G482">
-        <v>20.800999999999998</v>
-      </c>
-      <c r="H482">
-        <v>-19.788</v>
-      </c>
-      <c r="I482">
-        <v>23.779</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <v>-0.34</v>
-      </c>
-      <c r="B483">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="C483">
-        <v>0.877</v>
-      </c>
-      <c r="D483">
-        <v>-6.4089999999999998</v>
-      </c>
-      <c r="E483">
-        <v>-15.93</v>
-      </c>
-      <c r="F483">
-        <v>6.7140000000000004</v>
-      </c>
-      <c r="G483">
-        <v>21.167000000000002</v>
-      </c>
-      <c r="H483">
-        <v>-20.093</v>
-      </c>
-      <c r="I483">
-        <v>23.096</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A484">
-        <v>-0.33500000000000002</v>
-      </c>
-      <c r="B484">
-        <v>0.107</v>
-      </c>
-      <c r="C484">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="D484">
-        <v>1.099</v>
-      </c>
-      <c r="E484">
-        <v>-8.9719999999999995</v>
-      </c>
-      <c r="F484">
-        <v>17.882999999999999</v>
-      </c>
-      <c r="G484">
-        <v>20.068000000000001</v>
-      </c>
-      <c r="H484">
-        <v>-19.788</v>
-      </c>
-      <c r="I484">
-        <v>24.425999999999998</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A485">
-        <v>-0.371</v>
-      </c>
-      <c r="B485">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="C485">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="D485">
-        <v>7.5069999999999997</v>
-      </c>
-      <c r="E485">
-        <v>-1.8919999999999999</v>
-      </c>
-      <c r="F485">
-        <v>11.047000000000001</v>
-      </c>
-      <c r="G485">
-        <v>20.105</v>
-      </c>
-      <c r="H485">
-        <v>-19.8</v>
-      </c>
-      <c r="I485">
-        <v>24.67</v>
-      </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A486">
-        <v>-0.37</v>
-      </c>
-      <c r="B486">
-        <v>0.05</v>
-      </c>
-      <c r="C486">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="D486">
-        <v>21.300999999999998</v>
-      </c>
-      <c r="E486">
-        <v>14.282</v>
-      </c>
-      <c r="F486">
-        <v>14.099</v>
-      </c>
-      <c r="G486">
-        <v>20.227</v>
-      </c>
-      <c r="H486">
-        <v>-19.556000000000001</v>
-      </c>
-      <c r="I486">
-        <v>23.596</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A487">
-        <v>-0.34399999999999997</v>
-      </c>
-      <c r="B487">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="C487">
-        <v>1</v>
-      </c>
-      <c r="D487">
-        <v>19.530999999999999</v>
-      </c>
-      <c r="E487">
-        <v>9.827</v>
-      </c>
-      <c r="F487">
-        <v>12.085000000000001</v>
-      </c>
-      <c r="G487">
-        <v>19.8</v>
-      </c>
-      <c r="H487">
-        <v>-19.617000000000001</v>
-      </c>
-      <c r="I487">
-        <v>23.254000000000001</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A488">
-        <v>-0.32200000000000001</v>
-      </c>
-      <c r="B488">
-        <v>0</v>
-      </c>
-      <c r="C488">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="D488">
-        <v>18.616</v>
-      </c>
-      <c r="E488">
-        <v>-15.198</v>
-      </c>
-      <c r="F488">
-        <v>12.268000000000001</v>
-      </c>
-      <c r="G488">
-        <v>19.603999999999999</v>
-      </c>
-      <c r="H488">
-        <v>-18.884</v>
-      </c>
-      <c r="I488">
-        <v>23.388999999999999</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A489">
-        <v>-0.25800000000000001</v>
-      </c>
-      <c r="B489">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="C489">
-        <v>0.89</v>
-      </c>
-      <c r="D489">
-        <v>8.7279999999999998</v>
-      </c>
-      <c r="E489">
-        <v>-31.920999999999999</v>
-      </c>
-      <c r="F489">
-        <v>13.611000000000001</v>
-      </c>
-      <c r="G489">
-        <v>19.091999999999999</v>
-      </c>
-      <c r="H489">
-        <v>-18.286000000000001</v>
-      </c>
-      <c r="I489">
-        <v>22.571000000000002</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A490">
-        <v>-0.34799999999999998</v>
-      </c>
-      <c r="B490">
-        <v>-0.10199999999999999</v>
-      </c>
-      <c r="C490">
-        <v>0.83</v>
-      </c>
-      <c r="D490">
-        <v>-44.677999999999997</v>
-      </c>
-      <c r="E490">
-        <v>-51.636000000000003</v>
-      </c>
-      <c r="F490">
-        <v>-11.78</v>
-      </c>
-      <c r="G490">
-        <v>18.994</v>
-      </c>
-      <c r="H490">
-        <v>-18.884</v>
-      </c>
-      <c r="I490">
-        <v>24.071999999999999</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A491">
-        <v>-0.439</v>
-      </c>
-      <c r="B491">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="C491">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="D491">
-        <v>-52.49</v>
-      </c>
-      <c r="E491">
-        <v>-49.438000000000002</v>
-      </c>
-      <c r="F491">
-        <v>-65.552000000000007</v>
-      </c>
-      <c r="G491">
-        <v>19.652999999999999</v>
-      </c>
-      <c r="H491">
-        <v>-19.385000000000002</v>
-      </c>
-      <c r="I491">
-        <v>26.27</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A492">
-        <v>-0.57299999999999995</v>
-      </c>
-      <c r="B492">
-        <v>0.12</v>
-      </c>
-      <c r="C492">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="D492">
-        <v>-56.213000000000001</v>
-      </c>
-      <c r="E492">
-        <v>-18.433</v>
-      </c>
-      <c r="F492">
-        <v>-73.546999999999997</v>
-      </c>
-      <c r="G492">
-        <v>21.472000000000001</v>
-      </c>
-      <c r="H492">
-        <v>-20.3</v>
-      </c>
-      <c r="I492">
-        <v>27.478000000000002</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A493">
-        <v>-0.5</v>
-      </c>
-      <c r="B493">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="C493">
-        <v>0.74</v>
-      </c>
-      <c r="D493">
-        <v>-10.742000000000001</v>
-      </c>
-      <c r="E493">
-        <v>59.204000000000001</v>
-      </c>
-      <c r="F493">
-        <v>-66.650000000000006</v>
-      </c>
-      <c r="G493">
-        <v>21.68</v>
-      </c>
-      <c r="H493">
-        <v>-21.326000000000001</v>
-      </c>
-      <c r="I493">
-        <v>26.745999999999999</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A494">
-        <v>-0.316</v>
-      </c>
-      <c r="B494">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="C494">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="D494">
-        <v>46.509</v>
-      </c>
-      <c r="E494">
-        <v>132.32400000000001</v>
-      </c>
-      <c r="F494">
-        <v>-18.372</v>
-      </c>
-      <c r="G494">
-        <v>22.472999999999999</v>
-      </c>
-      <c r="H494">
-        <v>-22.033999999999999</v>
-      </c>
-      <c r="I494">
-        <v>25.879000000000001</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A495">
-        <v>-0.254</v>
-      </c>
-      <c r="B495">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="C495">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="D495">
-        <v>99.364999999999995</v>
-      </c>
-      <c r="E495">
-        <v>90.331999999999994</v>
-      </c>
-      <c r="F495">
-        <v>43.274000000000001</v>
-      </c>
-      <c r="G495">
-        <v>22.765999999999998</v>
-      </c>
-      <c r="H495">
-        <v>-21.802</v>
-      </c>
-      <c r="I495">
-        <v>23.169</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A496">
-        <v>-0.108</v>
-      </c>
-      <c r="B496">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="C496">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="D496">
-        <v>150.26900000000001</v>
-      </c>
-      <c r="E496">
-        <v>49.5</v>
-      </c>
-      <c r="F496">
-        <v>28.687000000000001</v>
-      </c>
-      <c r="G496">
-        <v>22.791</v>
-      </c>
-      <c r="H496">
-        <v>-19.91</v>
-      </c>
-      <c r="I496">
-        <v>20.02</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A497">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="B497">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="C497">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="D497">
-        <v>118.164</v>
-      </c>
-      <c r="E497">
-        <v>9.1549999999999994</v>
-      </c>
-      <c r="F497">
-        <v>24.17</v>
-      </c>
-      <c r="G497">
-        <v>22.375</v>
-      </c>
-      <c r="H497">
-        <v>-18.297999999999998</v>
-      </c>
-      <c r="I497">
-        <v>16.968</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A498">
-        <v>-0.14299999999999999</v>
-      </c>
-      <c r="B498">
-        <v>-0.372</v>
-      </c>
-      <c r="C498">
-        <v>0.997</v>
-      </c>
-      <c r="D498">
-        <v>36.499000000000002</v>
-      </c>
-      <c r="E498">
-        <v>-27.954000000000001</v>
-      </c>
-      <c r="F498">
-        <v>19.896999999999998</v>
-      </c>
-      <c r="G498">
-        <v>21.936</v>
-      </c>
-      <c r="H498">
-        <v>-18.396000000000001</v>
-      </c>
-      <c r="I498">
-        <v>16.356999999999999</v>
-      </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A499">
-        <v>-0.17699999999999999</v>
-      </c>
-      <c r="B499">
-        <v>-0.28599999999999998</v>
-      </c>
-      <c r="C499">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="D499">
-        <v>-9.827</v>
-      </c>
-      <c r="E499">
-        <v>-30.579000000000001</v>
-      </c>
-      <c r="F499">
-        <v>-0.48799999999999999</v>
-      </c>
-      <c r="G499">
-        <v>21.728999999999999</v>
-      </c>
-      <c r="H499">
-        <v>-18.053999999999998</v>
-      </c>
-      <c r="I499">
-        <v>16.602</v>
-      </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A500">
-        <v>-0.20100000000000001</v>
-      </c>
-      <c r="B500">
-        <v>-0.22900000000000001</v>
-      </c>
-      <c r="C500">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="D500">
-        <v>-40.588000000000001</v>
-      </c>
-      <c r="E500">
-        <v>-27.832000000000001</v>
-      </c>
-      <c r="F500">
-        <v>-13.55</v>
-      </c>
-      <c r="G500">
-        <v>21.436</v>
-      </c>
-      <c r="H500">
-        <v>-18.175999999999998</v>
-      </c>
-      <c r="I500">
-        <v>18.175999999999998</v>
-      </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A501">
-        <v>-0.247</v>
-      </c>
-      <c r="B501">
-        <v>-0.14299999999999999</v>
-      </c>
-      <c r="C501">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="D501">
-        <v>-42.48</v>
-      </c>
-      <c r="E501">
-        <v>-39.612000000000002</v>
-      </c>
-      <c r="F501">
-        <v>-23.742999999999999</v>
-      </c>
-      <c r="G501">
-        <v>21.007999999999999</v>
-      </c>
-      <c r="H501">
-        <v>-18.908999999999999</v>
-      </c>
-      <c r="I501">
-        <v>18.114999999999998</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A502">
-        <v>-0.27800000000000002</v>
-      </c>
-      <c r="B502">
-        <v>-0.14699999999999999</v>
-      </c>
-      <c r="C502">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="D502">
-        <v>-43.64</v>
-      </c>
-      <c r="E502">
-        <v>-47.545999999999999</v>
-      </c>
-      <c r="F502">
-        <v>-18.981999999999999</v>
-      </c>
-      <c r="G502">
-        <v>20.715</v>
-      </c>
-      <c r="H502">
-        <v>-19.640999999999998</v>
-      </c>
-      <c r="I502">
-        <v>19.835999999999999</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A503">
-        <v>-0.317</v>
-      </c>
-      <c r="B503">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="C503">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="D503">
-        <v>-50.72</v>
-      </c>
-      <c r="E503">
-        <v>-26.733000000000001</v>
-      </c>
-      <c r="F503">
-        <v>-26.184000000000001</v>
-      </c>
-      <c r="G503">
-        <v>20.837</v>
-      </c>
-      <c r="H503">
-        <v>-20.02</v>
-      </c>
-      <c r="I503">
-        <v>21.948</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A504">
-        <v>-0.32900000000000001</v>
-      </c>
-      <c r="B504">
-        <v>-8.7999999999999995E-2</v>
-      </c>
-      <c r="C504">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="D504">
-        <v>-81.847999999999999</v>
-      </c>
-      <c r="E504">
-        <v>-34.423999999999999</v>
-      </c>
-      <c r="F504">
-        <v>-29.724</v>
-      </c>
-      <c r="G504">
-        <v>21.375</v>
-      </c>
-      <c r="H504">
-        <v>-20.763999999999999</v>
-      </c>
-      <c r="I504">
-        <v>23.693999999999999</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A505">
-        <v>-0.40799999999999997</v>
-      </c>
-      <c r="B505">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="C505">
-        <v>0.874</v>
-      </c>
-      <c r="D505">
-        <v>-58.838000000000001</v>
-      </c>
-      <c r="E505">
-        <v>-28.748000000000001</v>
-      </c>
-      <c r="F505">
-        <v>-31.555</v>
-      </c>
-      <c r="G505">
-        <v>21.375</v>
-      </c>
-      <c r="H505">
-        <v>-20.812999999999999</v>
-      </c>
-      <c r="I505">
-        <v>24.315999999999999</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A506">
-        <v>-0.41099999999999998</v>
-      </c>
-      <c r="B506">
-        <v>0.187</v>
-      </c>
-      <c r="C506">
-        <v>0.82</v>
-      </c>
-      <c r="D506">
-        <v>-49.438000000000002</v>
-      </c>
-      <c r="E506">
-        <v>-2.8690000000000002</v>
-      </c>
-      <c r="F506">
-        <v>-21.972999999999999</v>
-      </c>
-      <c r="G506">
-        <v>22.265999999999998</v>
-      </c>
-      <c r="H506">
-        <v>-21.923999999999999</v>
-      </c>
-      <c r="I506">
-        <v>25.72</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A507">
-        <v>-0.39500000000000002</v>
-      </c>
-      <c r="B507">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="C507">
-        <v>0.88</v>
-      </c>
-      <c r="D507">
-        <v>-4.4560000000000004</v>
-      </c>
-      <c r="E507">
-        <v>25.085000000000001</v>
-      </c>
-      <c r="F507">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="G507">
-        <v>21.887</v>
-      </c>
-      <c r="H507">
-        <v>-21.728999999999999</v>
-      </c>
-      <c r="I507">
-        <v>25.562000000000001</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A508">
-        <v>-0.33500000000000002</v>
-      </c>
-      <c r="B508">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C508">
-        <v>0.875</v>
-      </c>
-      <c r="D508">
-        <v>18.920999999999999</v>
-      </c>
-      <c r="E508">
-        <v>38.33</v>
-      </c>
-      <c r="F508">
-        <v>11.292</v>
-      </c>
-      <c r="G508">
-        <v>21.594000000000001</v>
-      </c>
-      <c r="H508">
-        <v>-21.361999999999998</v>
-      </c>
-      <c r="I508">
-        <v>25.757000000000001</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A509">
-        <v>-0.28100000000000003</v>
-      </c>
-      <c r="B509">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="C509">
-        <v>0.93</v>
-      </c>
-      <c r="D509">
-        <v>13.061999999999999</v>
-      </c>
-      <c r="E509">
-        <v>31.981999999999999</v>
-      </c>
-      <c r="F509">
-        <v>-2.258</v>
-      </c>
-      <c r="G509">
-        <v>21.57</v>
-      </c>
-      <c r="H509">
-        <v>-21.422999999999998</v>
-      </c>
-      <c r="I509">
-        <v>23.474</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A510">
-        <v>-0.26400000000000001</v>
-      </c>
-      <c r="B510">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C510">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="D510">
-        <v>8.423</v>
-      </c>
-      <c r="E510">
-        <v>14.893000000000001</v>
-      </c>
-      <c r="F510">
-        <v>-9.6440000000000001</v>
-      </c>
-      <c r="G510">
-        <v>22.143999999999998</v>
-      </c>
-      <c r="H510">
-        <v>-20.984000000000002</v>
-      </c>
-      <c r="I510">
-        <v>22.765999999999998</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A511">
-        <v>-0.40799999999999997</v>
-      </c>
-      <c r="B511">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="C511">
-        <v>0.874</v>
-      </c>
-      <c r="D511">
-        <v>-58.838000000000001</v>
-      </c>
-      <c r="E511">
-        <v>-28.748000000000001</v>
-      </c>
-      <c r="F511">
-        <v>-31.555</v>
-      </c>
-      <c r="G511">
-        <v>21.375</v>
-      </c>
-      <c r="H511">
-        <v>-20.812999999999999</v>
-      </c>
-      <c r="I511">
-        <v>24.315999999999999</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A512">
-        <v>-0.41099999999999998</v>
-      </c>
-      <c r="B512">
-        <v>0.187</v>
-      </c>
-      <c r="C512">
-        <v>0.82</v>
-      </c>
-      <c r="D512">
-        <v>-49.438000000000002</v>
-      </c>
-      <c r="E512">
-        <v>-2.8690000000000002</v>
-      </c>
-      <c r="F512">
-        <v>-21.972999999999999</v>
-      </c>
-      <c r="G512">
-        <v>22.265999999999998</v>
-      </c>
-      <c r="H512">
-        <v>-21.923999999999999</v>
-      </c>
-      <c r="I512">
-        <v>25.72</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A513">
-        <v>-0.39500000000000002</v>
-      </c>
-      <c r="B513">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="C513">
-        <v>0.88</v>
-      </c>
-      <c r="D513">
-        <v>-4.4560000000000004</v>
-      </c>
-      <c r="E513">
-        <v>25.085000000000001</v>
-      </c>
-      <c r="F513">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="G513">
-        <v>21.887</v>
-      </c>
-      <c r="H513">
-        <v>-21.728999999999999</v>
-      </c>
-      <c r="I513">
-        <v>25.562000000000001</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A514">
-        <v>-0.33500000000000002</v>
-      </c>
-      <c r="B514">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C514">
-        <v>0.875</v>
-      </c>
-      <c r="D514">
-        <v>18.920999999999999</v>
-      </c>
-      <c r="E514">
-        <v>38.33</v>
-      </c>
-      <c r="F514">
-        <v>11.292</v>
-      </c>
-      <c r="G514">
-        <v>21.594000000000001</v>
-      </c>
-      <c r="H514">
-        <v>-21.361999999999998</v>
-      </c>
-      <c r="I514">
-        <v>25.757000000000001</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A515">
-        <v>-0.28100000000000003</v>
-      </c>
-      <c r="B515">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="C515">
-        <v>0.93</v>
-      </c>
-      <c r="D515">
-        <v>13.061999999999999</v>
-      </c>
-      <c r="E515">
-        <v>31.981999999999999</v>
-      </c>
-      <c r="F515">
-        <v>-2.258</v>
-      </c>
-      <c r="G515">
-        <v>21.57</v>
-      </c>
-      <c r="H515">
-        <v>-21.422999999999998</v>
-      </c>
-      <c r="I515">
-        <v>23.474</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A516">
-        <v>-0.26400000000000001</v>
-      </c>
-      <c r="B516">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C516">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="D516">
-        <v>8.423</v>
-      </c>
-      <c r="E516">
-        <v>14.893000000000001</v>
-      </c>
-      <c r="F516">
-        <v>-9.6440000000000001</v>
-      </c>
-      <c r="G516">
-        <v>22.143999999999998</v>
-      </c>
-      <c r="H516">
-        <v>-20.984000000000002</v>
-      </c>
-      <c r="I516">
-        <v>22.765999999999998</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A517">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-      <c r="B517">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="C517">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="D517">
-        <v>94.665999999999997</v>
-      </c>
-      <c r="E517">
-        <v>-97.168000000000006</v>
-      </c>
-      <c r="F517">
-        <v>-33.752000000000002</v>
-      </c>
-      <c r="G517">
-        <v>22.302</v>
-      </c>
-      <c r="H517">
-        <v>-15.552</v>
-      </c>
-      <c r="I517">
-        <v>38.476999999999997</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A518">
-        <v>-0.01</v>
-      </c>
-      <c r="B518">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="C518">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="D518">
-        <v>69.091999999999999</v>
-      </c>
-      <c r="E518">
-        <v>-184.875</v>
-      </c>
-      <c r="F518">
-        <v>-46.204000000000001</v>
-      </c>
-      <c r="G518">
-        <v>25.158999999999999</v>
-      </c>
-      <c r="H518">
-        <v>-17.687999999999999</v>
-      </c>
-      <c r="I518">
-        <v>38.427999999999997</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A519">
-        <v>-0.13900000000000001</v>
-      </c>
-      <c r="B519">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="C519">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="D519">
-        <v>-3.7839999999999998</v>
-      </c>
-      <c r="E519">
-        <v>-150.51300000000001</v>
-      </c>
-      <c r="F519">
-        <v>-77.331999999999994</v>
-      </c>
-      <c r="G519">
-        <v>28.100999999999999</v>
-      </c>
-      <c r="H519">
-        <v>-19.042999999999999</v>
-      </c>
-      <c r="I519">
-        <v>40.844999999999999</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A520">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-      <c r="B520">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="C520">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="D520">
-        <v>10.986000000000001</v>
-      </c>
-      <c r="E520">
-        <v>-60.302999999999997</v>
-      </c>
-      <c r="F520">
-        <v>-110.84</v>
-      </c>
-      <c r="G520">
-        <v>30.591000000000001</v>
-      </c>
-      <c r="H520">
-        <v>-19.713999999999999</v>
-      </c>
-      <c r="I520">
-        <v>39.832000000000001</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A521">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="B521">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="C521">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="D521">
-        <v>-2.7469999999999999</v>
-      </c>
-      <c r="E521">
-        <v>31.555</v>
-      </c>
-      <c r="F521">
-        <v>-88.561999999999998</v>
-      </c>
-      <c r="G521">
-        <v>31.824000000000002</v>
-      </c>
-      <c r="H521">
-        <v>-20.641999999999999</v>
-      </c>
-      <c r="I521">
-        <v>40.405000000000001</v>
-      </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A522">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="B522">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="C522">
-        <v>0.32</v>
-      </c>
-      <c r="D522">
-        <v>115.295</v>
-      </c>
-      <c r="E522">
-        <v>178.22300000000001</v>
-      </c>
-      <c r="F522">
-        <v>-64.697000000000003</v>
-      </c>
-      <c r="G522">
-        <v>31.555</v>
-      </c>
-      <c r="H522">
-        <v>-21.96</v>
-      </c>
-      <c r="I522">
-        <v>38.305999999999997</v>
-      </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A523">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="B523">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="C523">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="D523">
-        <v>213.989</v>
-      </c>
-      <c r="E523">
-        <v>195.06800000000001</v>
-      </c>
-      <c r="F523">
-        <v>30.273</v>
-      </c>
-      <c r="G523">
-        <v>29.041</v>
-      </c>
-      <c r="H523">
-        <v>-23.827999999999999</v>
-      </c>
-      <c r="I523">
-        <v>33.484000000000002</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A524">
-        <v>0.253</v>
-      </c>
-      <c r="B524">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="C524">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D524">
-        <v>98.816000000000003</v>
-      </c>
-      <c r="E524">
-        <v>40.893999999999998</v>
-      </c>
-      <c r="F524">
-        <v>-2.625</v>
-      </c>
-      <c r="G524">
-        <v>28.173999999999999</v>
-      </c>
-      <c r="H524">
-        <v>-25.134</v>
-      </c>
-      <c r="I524">
-        <v>29.773</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A525">
-        <v>0.248</v>
-      </c>
-      <c r="B525">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="C525">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="D525">
-        <v>84.228999999999999</v>
-      </c>
-      <c r="E525">
-        <v>3.2349999999999999</v>
-      </c>
-      <c r="F525">
-        <v>-8.5449999999999999</v>
-      </c>
-      <c r="G525">
-        <v>28.100999999999999</v>
-      </c>
-      <c r="H525">
-        <v>-25.452000000000002</v>
-      </c>
-      <c r="I525">
-        <v>28.295999999999999</v>
-      </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A526">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="B526">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="C526">
-        <v>0.82</v>
-      </c>
-      <c r="D526">
-        <v>57.19</v>
-      </c>
-      <c r="E526">
-        <v>-6.8360000000000003</v>
-      </c>
-      <c r="F526">
-        <v>10.132</v>
-      </c>
-      <c r="G526">
-        <v>27.686</v>
-      </c>
-      <c r="H526">
-        <v>-25.623000000000001</v>
-      </c>
-      <c r="I526">
-        <v>27.234000000000002</v>
-      </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A527">
-        <v>0.315</v>
-      </c>
-      <c r="B527">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="C527">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="D527">
-        <v>-69.213999999999999</v>
-      </c>
-      <c r="E527">
-        <v>-30.457000000000001</v>
-      </c>
-      <c r="F527">
-        <v>21.484000000000002</v>
-      </c>
-      <c r="G527">
-        <v>27.161000000000001</v>
-      </c>
-      <c r="H527">
-        <v>-25.524999999999999</v>
-      </c>
-      <c r="I527">
-        <v>27.148</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A528">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B528">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="C528">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="D528">
-        <v>-215.149</v>
-      </c>
-      <c r="E528">
-        <v>-89.905000000000001</v>
-      </c>
-      <c r="F528">
-        <v>33.691000000000003</v>
-      </c>
-      <c r="G528">
-        <v>26.77</v>
-      </c>
-      <c r="H528">
-        <v>-23.962</v>
-      </c>
-      <c r="I528">
-        <v>30.492999999999999</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A529">
-        <v>2.7E-2</v>
-      </c>
-      <c r="B529">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="C529">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="D529">
-        <v>-159.72900000000001</v>
-      </c>
-      <c r="E529">
-        <v>-72.754000000000005</v>
-      </c>
-      <c r="F529">
-        <v>59.509</v>
-      </c>
-      <c r="G529">
-        <v>25.890999999999998</v>
-      </c>
-      <c r="H529">
-        <v>-22.913</v>
-      </c>
-      <c r="I529">
-        <v>34.777999999999999</v>
-      </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A530">
-        <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="B530">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="C530">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="D530">
-        <v>-18.25</v>
-      </c>
-      <c r="E530">
-        <v>-9.9489999999999998</v>
-      </c>
-      <c r="F530">
-        <v>26.001000000000001</v>
-      </c>
-      <c r="G530">
-        <v>25.780999999999999</v>
-      </c>
-      <c r="H530">
-        <v>-21.606000000000002</v>
-      </c>
-      <c r="I530">
-        <v>36.731000000000002</v>
-      </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A531">
-        <v>0.03</v>
-      </c>
-      <c r="B531">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="C531">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="D531">
-        <v>81.603999999999999</v>
-      </c>
-      <c r="E531">
-        <v>25.696000000000002</v>
-      </c>
-      <c r="F531">
-        <v>4.2720000000000002</v>
-      </c>
-      <c r="G531">
-        <v>25.94</v>
-      </c>
-      <c r="H531">
-        <v>-21.972999999999999</v>
-      </c>
-      <c r="I531">
-        <v>35.889000000000003</v>
-      </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A532">
-        <v>0.06</v>
-      </c>
-      <c r="B532">
-        <v>0.629</v>
-      </c>
-      <c r="C532">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="D532">
-        <v>130.43199999999999</v>
-      </c>
-      <c r="E532">
-        <v>61.707000000000001</v>
-      </c>
-      <c r="F532">
-        <v>-14.099</v>
-      </c>
-      <c r="G532">
-        <v>25.341999999999999</v>
-      </c>
-      <c r="H532">
-        <v>-22.582999999999998</v>
-      </c>
-      <c r="I532">
-        <v>32.909999999999997</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A533">
-        <v>0.158</v>
-      </c>
-      <c r="B533">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="C533">
-        <v>0.877</v>
-      </c>
-      <c r="D533">
-        <v>35.767000000000003</v>
-      </c>
-      <c r="E533">
-        <v>65.186000000000007</v>
-      </c>
-      <c r="F533">
-        <v>-7.8739999999999997</v>
-      </c>
-      <c r="G533">
-        <v>25.658999999999999</v>
-      </c>
-      <c r="H533">
-        <v>-23.218</v>
-      </c>
-      <c r="I533">
-        <v>31.433</v>
-      </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A534">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="B534">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="C534">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="D534">
-        <v>21.484000000000002</v>
-      </c>
-      <c r="E534">
-        <v>19.408999999999999</v>
-      </c>
-      <c r="F534">
-        <v>9.827</v>
-      </c>
-      <c r="G534">
-        <v>24.67</v>
-      </c>
-      <c r="H534">
-        <v>-23.986999999999998</v>
-      </c>
-      <c r="I534">
-        <v>32.396999999999998</v>
-      </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A535">
-        <v>5.5E-2</v>
-      </c>
-      <c r="B535">
-        <v>0.69</v>
-      </c>
-      <c r="C535">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="D535">
-        <v>69.823999999999998</v>
-      </c>
-      <c r="E535">
-        <v>6.165</v>
-      </c>
-      <c r="F535">
-        <v>20.141999999999999</v>
-      </c>
-      <c r="G535">
-        <v>24.817</v>
-      </c>
-      <c r="H535">
-        <v>-23.73</v>
-      </c>
-      <c r="I535">
-        <v>31.018000000000001</v>
-      </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A536">
-        <v>6.3E-2</v>
-      </c>
-      <c r="B536">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="C536">
-        <v>0.999</v>
-      </c>
-      <c r="D536">
-        <v>-85.326999999999998</v>
-      </c>
-      <c r="E536">
-        <v>-88.989000000000004</v>
-      </c>
-      <c r="F536">
-        <v>1.77</v>
-      </c>
-      <c r="G536">
-        <v>24.329000000000001</v>
-      </c>
-      <c r="H536">
-        <v>-23.169</v>
-      </c>
-      <c r="I536">
-        <v>32.726999999999997</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A537">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="B537">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="C537">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="D537">
-        <v>-244.38499999999999</v>
-      </c>
-      <c r="E537">
-        <v>-127.80800000000001</v>
-      </c>
-      <c r="F537">
-        <v>-16.234999999999999</v>
-      </c>
-      <c r="G537">
-        <v>25.562000000000001</v>
-      </c>
-      <c r="H537">
-        <v>-21.204000000000001</v>
-      </c>
-      <c r="I537">
-        <v>36.609000000000002</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A538">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="B538">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="C538">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="D538">
-        <v>-124.878</v>
-      </c>
-      <c r="E538">
-        <v>-70.679000000000002</v>
-      </c>
-      <c r="F538">
-        <v>-34.79</v>
-      </c>
-      <c r="G538">
-        <v>26.891999999999999</v>
-      </c>
-      <c r="H538">
-        <v>-19.629000000000001</v>
-      </c>
-      <c r="I538">
-        <v>38.927999999999997</v>
-      </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A539">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="B539">
-        <v>1.014</v>
-      </c>
-      <c r="C539">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D539">
-        <v>-59.082000000000001</v>
-      </c>
-      <c r="E539">
-        <v>76.66</v>
-      </c>
-      <c r="F539">
-        <v>-31.006</v>
-      </c>
-      <c r="G539">
-        <v>27.039000000000001</v>
-      </c>
-      <c r="H539">
-        <v>-19.152999999999999</v>
-      </c>
-      <c r="I539">
-        <v>41.137999999999998</v>
-      </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A540">
-        <v>0.153</v>
-      </c>
-      <c r="B540">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="C540">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="D540">
-        <v>6.7140000000000004</v>
-      </c>
-      <c r="E540">
-        <v>152.22200000000001</v>
-      </c>
-      <c r="F540">
-        <v>-39.795000000000002</v>
-      </c>
-      <c r="G540">
-        <v>25.170999999999999</v>
-      </c>
-      <c r="H540">
-        <v>-18.481000000000002</v>
-      </c>
-      <c r="I540">
-        <v>38.561999999999998</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A541">
-        <v>0.316</v>
-      </c>
-      <c r="B541">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="C541">
-        <v>0.38</v>
-      </c>
-      <c r="D541">
-        <v>-55.847000000000001</v>
-      </c>
-      <c r="E541">
-        <v>102.905</v>
-      </c>
-      <c r="F541">
-        <v>-40.039000000000001</v>
-      </c>
-      <c r="G541">
-        <v>24.719000000000001</v>
-      </c>
-      <c r="H541">
-        <v>-17.786000000000001</v>
-      </c>
-      <c r="I541">
-        <v>38.927999999999997</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A542">
-        <v>0.248</v>
-      </c>
-      <c r="B542">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="C542">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="D542">
-        <v>33.142000000000003</v>
-      </c>
-      <c r="E542">
-        <v>17.577999999999999</v>
-      </c>
-      <c r="F542">
-        <v>-6.165</v>
-      </c>
-      <c r="G542">
-        <v>24.181999999999999</v>
-      </c>
-      <c r="H542">
-        <v>-17.626999999999999</v>
-      </c>
-      <c r="I542">
-        <v>37.683</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A543">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="B543">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="C543">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="D543">
-        <v>13.794</v>
-      </c>
-      <c r="E543">
-        <v>-49.377000000000002</v>
-      </c>
-      <c r="F543">
-        <v>27.771000000000001</v>
-      </c>
-      <c r="G543">
-        <v>24.084</v>
-      </c>
-      <c r="H543">
-        <v>-17.870999999999999</v>
-      </c>
-      <c r="I543">
-        <v>38.317999999999998</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A544">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="B544">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="C544">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="D544">
-        <v>65.918000000000006</v>
-      </c>
-      <c r="E544">
-        <v>-74.584999999999994</v>
-      </c>
-      <c r="F544">
-        <v>29.724</v>
-      </c>
-      <c r="G544">
-        <v>23.986999999999998</v>
-      </c>
-      <c r="H544">
-        <v>-18.042000000000002</v>
-      </c>
-      <c r="I544">
-        <v>38.793999999999997</v>
-      </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A545">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="B545">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="C545">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="D545">
-        <v>72.204999999999998</v>
-      </c>
-      <c r="E545">
-        <v>-64.513999999999996</v>
-      </c>
-      <c r="F545">
-        <v>47.363</v>
-      </c>
-      <c r="G545">
-        <v>24.951000000000001</v>
-      </c>
-      <c r="H545">
-        <v>-18.908999999999999</v>
-      </c>
-      <c r="I545">
-        <v>38.366999999999997</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A546">
-        <v>-6.5000000000000002E-2</v>
-      </c>
-      <c r="B546">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="C546">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="D546">
-        <v>63.843000000000004</v>
-      </c>
-      <c r="E546">
-        <v>-54.015999999999998</v>
-      </c>
-      <c r="F546">
-        <v>54.81</v>
-      </c>
-      <c r="G546">
-        <v>24.5</v>
-      </c>
-      <c r="H546">
-        <v>-19.457999999999998</v>
-      </c>
-      <c r="I546">
-        <v>38.341999999999999</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A547">
-        <v>-0.23300000000000001</v>
-      </c>
-      <c r="B547">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="C547">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="D547">
-        <v>-16.052</v>
-      </c>
-      <c r="E547">
-        <v>-11.901999999999999</v>
-      </c>
-      <c r="F547">
-        <v>27.588000000000001</v>
-      </c>
-      <c r="G547">
-        <v>23.827999999999999</v>
-      </c>
-      <c r="H547">
-        <v>-18.957999999999998</v>
-      </c>
-      <c r="I547">
-        <v>37.975999999999999</v>
-      </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A548">
-        <v>-0.104</v>
-      </c>
-      <c r="B548">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="C548">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D548">
-        <v>-44.25</v>
-      </c>
-      <c r="E548">
-        <v>29.541</v>
-      </c>
-      <c r="F548">
-        <v>-8.0570000000000004</v>
-      </c>
-      <c r="G548">
-        <v>23.779</v>
-      </c>
-      <c r="H548">
-        <v>-18.347000000000001</v>
-      </c>
-      <c r="I548">
-        <v>38.598999999999997</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A549">
-        <v>-0.13300000000000001</v>
-      </c>
-      <c r="B549">
-        <v>0.86</v>
-      </c>
-      <c r="C549">
-        <v>0.37</v>
-      </c>
-      <c r="D549">
-        <v>-11.169</v>
-      </c>
-      <c r="E549">
-        <v>31.006</v>
-      </c>
-      <c r="F549">
-        <v>-18.616</v>
-      </c>
-      <c r="G549">
-        <v>23.792000000000002</v>
-      </c>
-      <c r="H549">
-        <v>-18.53</v>
-      </c>
-      <c r="I549">
-        <v>38.732999999999997</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A550">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="B550">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="C550">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D550">
-        <v>-36.194000000000003</v>
-      </c>
-      <c r="E550">
-        <v>27.283000000000001</v>
-      </c>
-      <c r="F550">
-        <v>-27.161000000000001</v>
-      </c>
-      <c r="G550">
-        <v>23.303000000000001</v>
-      </c>
-      <c r="H550">
-        <v>-17.969000000000001</v>
-      </c>
-      <c r="I550">
-        <v>37.707999999999998</v>
-      </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A551">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-      <c r="B551">
-        <v>0.878</v>
-      </c>
-      <c r="C551">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D551">
-        <v>-16.846</v>
-      </c>
-      <c r="E551">
-        <v>-3.4790000000000001</v>
-      </c>
-      <c r="F551">
-        <v>-32.837000000000003</v>
-      </c>
-      <c r="G551">
-        <v>24.158000000000001</v>
-      </c>
-      <c r="H551">
-        <v>-19.152999999999999</v>
-      </c>
-      <c r="I551">
-        <v>39.136000000000003</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A552">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="B552">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="C552">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D552">
-        <v>-17.943999999999999</v>
-      </c>
-      <c r="E552">
-        <v>25.390999999999998</v>
-      </c>
-      <c r="F552">
-        <v>-38.268999999999998</v>
-      </c>
-      <c r="G552">
-        <v>24.047999999999998</v>
-      </c>
-      <c r="H552">
-        <v>-18.469000000000001</v>
-      </c>
-      <c r="I552">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A553">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="B553">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="C553">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="D553">
-        <v>-88.867000000000004</v>
-      </c>
-      <c r="E553">
-        <v>50.353999999999999</v>
-      </c>
-      <c r="F553">
-        <v>-21.361999999999998</v>
-      </c>
-      <c r="G553">
-        <v>23.901</v>
-      </c>
-      <c r="H553">
-        <v>-17.882999999999999</v>
-      </c>
-      <c r="I553">
-        <v>39.087000000000003</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A554">
-        <v>0.115</v>
-      </c>
-      <c r="B554">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="C554">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="D554">
-        <v>-25.390999999999998</v>
-      </c>
-      <c r="E554">
-        <v>-4.3949999999999996</v>
-      </c>
-      <c r="F554">
-        <v>24.292000000000002</v>
-      </c>
-      <c r="G554">
-        <v>22.852</v>
-      </c>
-      <c r="H554">
-        <v>-15.978999999999999</v>
-      </c>
-      <c r="I554">
-        <v>38.927999999999997</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A555">
-        <v>1E-3</v>
-      </c>
-      <c r="B555">
-        <v>0.87</v>
-      </c>
-      <c r="C555">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="D555">
-        <v>47.667999999999999</v>
-      </c>
-      <c r="E555">
-        <v>-47.912999999999997</v>
-      </c>
-      <c r="F555">
-        <v>19.896999999999998</v>
-      </c>
-      <c r="G555">
-        <v>24.047999999999998</v>
-      </c>
-      <c r="H555">
-        <v>-16.710999999999999</v>
-      </c>
-      <c r="I555">
-        <v>39.404000000000003</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A556">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="B556">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="C556">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D556">
-        <v>25.268999999999998</v>
-      </c>
-      <c r="E556">
-        <v>-12.756</v>
-      </c>
-      <c r="F556">
-        <v>14.343</v>
-      </c>
-      <c r="G556">
-        <v>23.754999999999999</v>
-      </c>
-      <c r="H556">
-        <v>-17.065000000000001</v>
-      </c>
-      <c r="I556">
-        <v>39.392000000000003</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A557">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="B557">
-        <v>0.95</v>
-      </c>
-      <c r="C557">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="D557">
-        <v>-3.601</v>
-      </c>
-      <c r="E557">
-        <v>4.7</v>
-      </c>
-      <c r="F557">
-        <v>-2.625</v>
-      </c>
-      <c r="G557">
-        <v>24.231000000000002</v>
-      </c>
-      <c r="H557">
-        <v>-16.809000000000001</v>
-      </c>
-      <c r="I557">
-        <v>38.904000000000003</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A558">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="B558">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="C558">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D558">
-        <v>19.408999999999999</v>
-      </c>
-      <c r="E558">
-        <v>8.24</v>
-      </c>
-      <c r="F558">
-        <v>-5.859</v>
-      </c>
-      <c r="G558">
-        <v>23.73</v>
-      </c>
-      <c r="H558">
-        <v>-17.358000000000001</v>
-      </c>
-      <c r="I558">
-        <v>39.171999999999997</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A559">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="B559">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="C559">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="D559">
-        <v>-19.530999999999999</v>
-      </c>
-      <c r="E559">
-        <v>20.995999999999999</v>
-      </c>
-      <c r="F559">
-        <v>-0.97699999999999998</v>
-      </c>
-      <c r="G559">
-        <v>23.498999999999999</v>
-      </c>
-      <c r="H559">
-        <v>-16.956</v>
-      </c>
-      <c r="I559">
-        <v>38.843000000000004</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A560">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="B560">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="C560">
-        <v>0.42</v>
-      </c>
-      <c r="D560">
-        <v>-32.593000000000004</v>
-      </c>
-      <c r="E560">
-        <v>25.818000000000001</v>
-      </c>
-      <c r="F560">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G560">
-        <v>22.986000000000001</v>
-      </c>
-      <c r="H560">
-        <v>-16.295999999999999</v>
-      </c>
-      <c r="I560">
-        <v>39.307000000000002</v>
-      </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A561">
-        <v>-5.7000000000000002E-2</v>
-      </c>
-      <c r="B561">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="C561">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="D561">
-        <v>-68.480999999999995</v>
-      </c>
-      <c r="E561">
-        <v>27.344000000000001</v>
-      </c>
-      <c r="F561">
-        <v>-0.97699999999999998</v>
-      </c>
-      <c r="G561">
-        <v>22.167999999999999</v>
-      </c>
-      <c r="H561">
-        <v>-15.662000000000001</v>
-      </c>
-      <c r="I561">
-        <v>39.551000000000002</v>
-      </c>
-    </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A562">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="B562">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="C562">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="D562">
-        <v>47.302</v>
-      </c>
-      <c r="E562">
-        <v>17.882999999999999</v>
-      </c>
-      <c r="F562">
-        <v>-26.733000000000001</v>
-      </c>
-      <c r="G562">
-        <v>22.314</v>
-      </c>
-      <c r="H562">
-        <v>-15.833</v>
-      </c>
-      <c r="I562">
-        <v>38.770000000000003</v>
-      </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A563">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="B563">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="C563">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="D563">
-        <v>125.30500000000001</v>
-      </c>
-      <c r="E563">
-        <v>33.447000000000003</v>
-      </c>
-      <c r="F563">
-        <v>-41.747999999999998</v>
-      </c>
-      <c r="G563">
-        <v>22.253</v>
-      </c>
-      <c r="H563">
-        <v>-17.553999999999998</v>
-      </c>
-      <c r="I563">
-        <v>36.975000000000001</v>
-      </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A564">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="B564">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="C564">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="D564">
-        <v>101.318</v>
-      </c>
-      <c r="E564">
-        <v>-43.945</v>
-      </c>
-      <c r="F564">
-        <v>-28.87</v>
-      </c>
-      <c r="G564">
-        <v>22.986000000000001</v>
-      </c>
-      <c r="H564">
-        <v>-18.97</v>
-      </c>
-      <c r="I564">
-        <v>35.448999999999998</v>
-      </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A565">
-        <v>0.09</v>
-      </c>
-      <c r="B565">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="C565">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="D565">
-        <v>71.349999999999994</v>
-      </c>
-      <c r="E565">
-        <v>-74.706999999999994</v>
-      </c>
-      <c r="F565">
-        <v>-20.324999999999999</v>
-      </c>
-      <c r="G565">
-        <v>24.146000000000001</v>
-      </c>
-      <c r="H565">
-        <v>-20.617999999999999</v>
-      </c>
-      <c r="I565">
-        <v>34.838999999999999</v>
-      </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A566">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="B566">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="C566">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D566">
-        <v>37.231000000000002</v>
-      </c>
-      <c r="E566">
-        <v>-12.634</v>
-      </c>
-      <c r="F566">
-        <v>-12.634</v>
-      </c>
-      <c r="G566">
-        <v>24.731000000000002</v>
-      </c>
-      <c r="H566">
-        <v>-20.63</v>
-      </c>
-      <c r="I566">
-        <v>35.082999999999998</v>
-      </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A567">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="B567">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C567">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="D567">
-        <v>2.38</v>
-      </c>
-      <c r="E567">
-        <v>4.8220000000000001</v>
-      </c>
-      <c r="F567">
-        <v>-25.146000000000001</v>
-      </c>
-      <c r="G567">
-        <v>24.634</v>
-      </c>
-      <c r="H567">
-        <v>-21.826000000000001</v>
-      </c>
-      <c r="I567">
-        <v>34.021000000000001</v>
-      </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A568">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="B568">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="C568">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="D568">
-        <v>-129.822</v>
-      </c>
-      <c r="E568">
-        <v>48.523000000000003</v>
-      </c>
-      <c r="F568">
-        <v>-45.776000000000003</v>
-      </c>
-      <c r="G568">
-        <v>25.146000000000001</v>
-      </c>
-      <c r="H568">
-        <v>-21.033000000000001</v>
-      </c>
-      <c r="I568">
-        <v>35.985999999999997</v>
-      </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A569">
-        <v>0.22</v>
-      </c>
-      <c r="B569">
-        <v>1.0840000000000001</v>
-      </c>
-      <c r="C569">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="D569">
-        <v>-107.483</v>
-      </c>
-      <c r="E569">
-        <v>58.043999999999997</v>
-      </c>
-      <c r="F569">
-        <v>-29.968</v>
-      </c>
-      <c r="G569">
-        <v>24.902000000000001</v>
-      </c>
-      <c r="H569">
-        <v>-19.934000000000001</v>
-      </c>
-      <c r="I569">
-        <v>36.243000000000002</v>
-      </c>
-    </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A570">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="B570">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="C570">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="D570">
-        <v>-75.623000000000005</v>
-      </c>
-      <c r="E570">
-        <v>-11.23</v>
-      </c>
-      <c r="F570">
-        <v>12.146000000000001</v>
-      </c>
-      <c r="G570">
-        <v>24.683</v>
-      </c>
-      <c r="H570">
-        <v>-19.263000000000002</v>
-      </c>
-      <c r="I570">
-        <v>37.378</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
